--- a/porcentagem_previsao.xlsx
+++ b/porcentagem_previsao.xlsx
@@ -12,9 +12,10 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$B$2:$J$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$DD$6:$ED$16</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$EZ$40:$FA$50</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$B$2:$J$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet2!$DD$6:$ED$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet2!$DD$6:$ED$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="65">
   <si>
     <t xml:space="preserve">campo_mourao</t>
   </si>
@@ -154,6 +155,9 @@
     <t xml:space="preserve">ALTITUDE</t>
   </si>
   <si>
+    <t xml:space="preserve">chuva</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rio verde-GO</t>
   </si>
   <si>
@@ -202,6 +206,9 @@
     <t xml:space="preserve">campo mourão</t>
   </si>
   <si>
+    <t xml:space="preserve">precsision</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forecasting Accuracy</t>
   </si>
   <si>
@@ -221,9 +228,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,###.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -288,7 +297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +314,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE46C0A"/>
         <bgColor rgb="FFC0504D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -701,7 +722,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -946,6 +967,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,6 +1035,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1024,6 +1073,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1056,7 +1117,7 @@
       <rgbColor rgb="FF77933C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF878787"/>
       <rgbColor rgb="FF8064A2"/>
       <rgbColor rgb="FFBE4B48"/>
@@ -1077,7 +1138,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD7E4BD"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1090,7 +1151,7 @@
       <rgbColor rgb="FFE46C0A"/>
       <rgbColor rgb="FF7D5FA0"/>
       <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1459,12 +1520,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="72765406"/>
-        <c:axId val="88604726"/>
-        <c:axId val="12012287"/>
+        <c:axId val="65555911"/>
+        <c:axId val="67028270"/>
+        <c:axId val="74763431"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="72765406"/>
+        <c:axId val="65555911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,14 +1561,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88604726"/>
+        <c:crossAx val="67028270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88604726"/>
+        <c:axId val="67028270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,12 +1614,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72765406"/>
+        <c:crossAx val="65555911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12012287"/>
+        <c:axId val="74763431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1655,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88604726"/>
+        <c:crossAx val="67028270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,11 +1829,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66353964"/>
-        <c:axId val="59213111"/>
+        <c:axId val="70786535"/>
+        <c:axId val="8257572"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66353964"/>
+        <c:axId val="70786535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1869,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59213111"/>
+        <c:crossAx val="8257572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59213111"/>
+        <c:axId val="8257572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1920,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66353964"/>
+        <c:crossAx val="70786535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2030,11 +2091,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13037486"/>
-        <c:axId val="90368536"/>
+        <c:axId val="32491146"/>
+        <c:axId val="54755977"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13037486"/>
+        <c:axId val="32491146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,12 +2131,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90368536"/>
+        <c:crossAx val="54755977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90368536"/>
+        <c:axId val="54755977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2182,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13037486"/>
+        <c:crossAx val="32491146"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2292,11 +2353,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46984627"/>
-        <c:axId val="63512473"/>
+        <c:axId val="27864315"/>
+        <c:axId val="57905968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46984627"/>
+        <c:axId val="27864315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,12 +2393,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63512473"/>
+        <c:crossAx val="57905968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63512473"/>
+        <c:axId val="57905968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2385,7 +2446,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46984627"/>
+        <c:crossAx val="27864315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2565,11 +2626,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47043908"/>
-        <c:axId val="78612427"/>
+        <c:axId val="23513569"/>
+        <c:axId val="30982902"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47043908"/>
+        <c:axId val="23513569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,12 +2666,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78612427"/>
+        <c:crossAx val="30982902"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78612427"/>
+        <c:axId val="30982902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2658,7 +2719,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47043908"/>
+        <c:crossAx val="23513569"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2706,10 +2767,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0888450148075025"/>
-          <c:y val="0.0421558164354322"/>
-          <c:w val="0.720631786771965"/>
-          <c:h val="0.832177161152615"/>
+          <c:x val="0.0888254360240778"/>
+          <c:y val="0.0421088091628769"/>
+          <c:w val="0.720558728198796"/>
+          <c:h val="0.832070069058447"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2943,11 +3004,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24243071"/>
-        <c:axId val="74953130"/>
+        <c:axId val="53235278"/>
+        <c:axId val="97285222"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24243071"/>
+        <c:axId val="53235278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,12 +3044,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74953130"/>
+        <c:crossAx val="97285222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74953130"/>
+        <c:axId val="97285222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3036,7 +3097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24243071"/>
+        <c:crossAx val="53235278"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3215,11 +3276,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83105351"/>
-        <c:axId val="41300242"/>
+        <c:axId val="57463001"/>
+        <c:axId val="18360192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83105351"/>
+        <c:axId val="57463001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,12 +3316,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41300242"/>
+        <c:crossAx val="18360192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41300242"/>
+        <c:axId val="18360192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3308,7 +3369,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83105351"/>
+        <c:crossAx val="57463001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3488,11 +3549,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74430007"/>
-        <c:axId val="20020766"/>
+        <c:axId val="88450403"/>
+        <c:axId val="65136941"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74430007"/>
+        <c:axId val="88450403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,12 +3589,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20020766"/>
+        <c:crossAx val="65136941"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20020766"/>
+        <c:axId val="65136941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3581,7 +3642,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74430007"/>
+        <c:crossAx val="88450403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3752,11 +3813,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20151872"/>
-        <c:axId val="87093893"/>
+        <c:axId val="44686951"/>
+        <c:axId val="26514012"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20151872"/>
+        <c:axId val="44686951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,12 +3853,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87093893"/>
+        <c:crossAx val="26514012"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87093893"/>
+        <c:axId val="26514012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3845,7 +3906,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20151872"/>
+        <c:crossAx val="44686951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4016,11 +4077,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2907189"/>
-        <c:axId val="19820820"/>
+        <c:axId val="77944422"/>
+        <c:axId val="8977898"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2907189"/>
+        <c:axId val="77944422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,12 +4117,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19820820"/>
+        <c:crossAx val="8977898"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19820820"/>
+        <c:axId val="8977898"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4109,7 +4170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2907189"/>
+        <c:crossAx val="77944422"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4280,11 +4341,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42968446"/>
-        <c:axId val="41487084"/>
+        <c:axId val="85836530"/>
+        <c:axId val="45318821"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42968446"/>
+        <c:axId val="85836530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,12 +4381,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41487084"/>
+        <c:crossAx val="45318821"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41487084"/>
+        <c:axId val="45318821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4373,7 +4434,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42968446"/>
+        <c:crossAx val="85836530"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4483,14 +4544,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4501,14 +4583,35 @@
               <c:f>Sheet2!$Y$21:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>72.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>61.2903225806</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>58.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.6585365854</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>80.487804878</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>53.6585365854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.8536585366</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>58.3333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -4550,14 +4653,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4568,14 +4692,35 @@
               <c:f>Sheet2!$Z$21:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>51.6129032258</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>48.7804878049</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>55.5555555556</c:v>
                 </c:pt>
               </c:numCache>
@@ -4617,14 +4762,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4635,14 +4801,35 @@
               <c:f>Sheet2!$AA$21:$AA$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>54.8387096774</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>38.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.2195121951</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43.9024390244</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>51.2195121951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.5365853659</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>41.6666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -4684,14 +4871,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4702,14 +4910,35 @@
               <c:f>Sheet2!$AB$21:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>70.9677419355</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>44.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.3414634146</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>51.2195121951</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>51.2195121951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>41.6666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -4751,14 +4980,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -4769,14 +5019,35 @@
               <c:f>Sheet2!$AC$21:$AC$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>58.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>68.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.4634146341</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60.9756097561</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>38.8888888889</c:v>
                 </c:pt>
               </c:numCache>
@@ -4785,12 +5056,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="19902465"/>
-        <c:axId val="57642268"/>
-        <c:axId val="53514328"/>
+        <c:axId val="66977069"/>
+        <c:axId val="46858650"/>
+        <c:axId val="40379173"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="19902465"/>
+        <c:axId val="66977069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,14 +5097,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57642268"/>
+        <c:crossAx val="46858650"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57642268"/>
+        <c:axId val="46858650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35"/>
@@ -4880,12 +5151,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19902465"/>
+        <c:crossAx val="66977069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="53514328"/>
+        <c:axId val="40379173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,7 +5192,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57642268"/>
+        <c:crossAx val="46858650"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4949,6 +5220,1058 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$EL$41:$EL$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>351.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>951.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$EM$41:$EM$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.63414634146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.75609756096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.0731707317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.55555555556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.22222222224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.49193548386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="46007126"/>
+        <c:axId val="15084845"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46007126"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15084845"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="15084845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46007126"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$EL$26:$EL$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>494.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>649.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>754.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$EM$26:$EM$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>97.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.248138324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.58536585364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.0243902439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.66666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.44444444444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.53658536584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.00000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="16548893"/>
+        <c:axId val="72888420"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="16548893"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72888420"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72888420"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16548893"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$EZ$26:$EZ$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>376.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>674.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>682.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$FA$26:$FA$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.23809523808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.65853658536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.77777777776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.69444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.65853658534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.53658536584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.82926829268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.60975609756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.55555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.55555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="86464789"/>
+        <c:axId val="57549096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86464789"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57549096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57549096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86464789"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$EZ$41:$EZ$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>305.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>652.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$FA$41:$FA$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65.36585365852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.73170731708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.9024390244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.53658536584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.1219512195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.66066066066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.39784946238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80844390"/>
+        <c:axId val="94069310"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80844390"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94069310"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94069310"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80844390"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5034,14 +6357,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5052,14 +6396,35 @@
               <c:f>Sheet2!$AD$21:$AD$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>97.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>46.1538461538</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>46.3414634146</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>47.2222222222</c:v>
                 </c:pt>
               </c:numCache>
@@ -5101,14 +6466,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5119,14 +6505,35 @@
               <c:f>Sheet2!$AE$21:$AE$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>51.2195121951</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>58.3333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -5168,14 +6575,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5186,14 +6614,35 @@
               <c:f>Sheet2!$AF$21:$AF$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60.9756097561</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.2195121951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.2195121951</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>61.1111111111</c:v>
                 </c:pt>
               </c:numCache>
@@ -5235,14 +6684,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5253,14 +6723,35 @@
               <c:f>Sheet2!$AG$21:$AG$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>94.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44.8275862069</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>63.4146341463</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>66.6666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -5302,14 +6793,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5320,14 +6832,35 @@
               <c:f>Sheet2!$AH$21:$AH$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>94.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>59.2592592593</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60.9756097561</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.7317073171</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>63.8888888889</c:v>
                 </c:pt>
               </c:numCache>
@@ -5336,12 +6869,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="25308070"/>
-        <c:axId val="93031104"/>
-        <c:axId val="32510516"/>
+        <c:axId val="50247285"/>
+        <c:axId val="66999164"/>
+        <c:axId val="68803891"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="25308070"/>
+        <c:axId val="50247285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5377,14 +6910,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93031104"/>
+        <c:crossAx val="66999164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93031104"/>
+        <c:axId val="66999164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35"/>
@@ -5431,12 +6964,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25308070"/>
+        <c:crossAx val="50247285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="32510516"/>
+        <c:axId val="68803891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5472,7 +7005,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93031104"/>
+        <c:crossAx val="66999164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5585,14 +7118,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5603,14 +7157,35 @@
               <c:f>Sheet2!$AI$21:$AI$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>68.2926829268</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>68.5714285714</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>77.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.2926829268</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>46.3414634146</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.0975609756</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>58.3333333333</c:v>
                 </c:pt>
               </c:numCache>
@@ -5652,14 +7227,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5670,14 +7266,35 @@
               <c:f>Sheet2!$AJ$21:$AJ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>44.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>54.2857142857</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>88.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>68.2926829268</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>68.2926829268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.7317073171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>61.1111111111</c:v>
                 </c:pt>
               </c:numCache>
@@ -5719,14 +7336,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5737,14 +7375,35 @@
               <c:f>Sheet2!$AK$21:$AK$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>38.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>86.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.0487804878</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>80.487804878</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>70.7317073171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.1707317073</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>77.7777777778</c:v>
                 </c:pt>
               </c:numCache>
@@ -5786,14 +7445,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5804,14 +7484,35 @@
               <c:f>Sheet2!$AL$21:$AL$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>52.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>58.3333333333</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>86.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.6829268293</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>80.487804878</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>85.3658536585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.8536585366</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>90.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -5853,14 +7554,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -5871,14 +7593,35 @@
               <c:f>Sheet2!$AM$21:$AM$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>88.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.3658536585</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>92.6829268293</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>87.8048780488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.0487804878</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>90.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -5887,12 +7630,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="19359054"/>
-        <c:axId val="35548248"/>
-        <c:axId val="94088966"/>
+        <c:axId val="63900327"/>
+        <c:axId val="22972858"/>
+        <c:axId val="83363263"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="19359054"/>
+        <c:axId val="63900327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,14 +7671,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35548248"/>
+        <c:crossAx val="22972858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35548248"/>
+        <c:axId val="22972858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35"/>
@@ -5982,12 +7725,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19359054"/>
+        <c:crossAx val="63900327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94088966"/>
+        <c:axId val="83363263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6023,7 +7766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35548248"/>
+        <c:crossAx val="22972858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6648,12 +8391,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="12245073"/>
-        <c:axId val="23407247"/>
-        <c:axId val="13158388"/>
+        <c:axId val="95368640"/>
+        <c:axId val="86097911"/>
+        <c:axId val="96388754"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="12245073"/>
+        <c:axId val="95368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6689,14 +8432,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23407247"/>
+        <c:crossAx val="86097911"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23407247"/>
+        <c:axId val="86097911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35"/>
@@ -6743,12 +8486,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12245073"/>
+        <c:crossAx val="95368640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="13158388"/>
+        <c:axId val="96388754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,7 +8527,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23407247"/>
+        <c:crossAx val="86097911"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6873,14 +8616,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -6891,14 +8655,35 @@
               <c:f>Sheet2!$AC$21:$AC$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>58.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>68.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.4634146341</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>60.9756097561</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>38.8888888889</c:v>
                 </c:pt>
               </c:numCache>
@@ -6947,14 +8732,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -6965,14 +8771,35 @@
               <c:f>Sheet2!$AH$21:$AH$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>94.4444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>59.2592592593</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>61.1111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>60.9756097561</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>60.9756097561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.7317073171</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>63.8888888889</c:v>
                 </c:pt>
               </c:numCache>
@@ -7021,14 +8848,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -7039,14 +8887,35 @@
               <c:f>Sheet2!$AM$21:$AM$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>88.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.3658536585</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>92.6829268293</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>87.8048780488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.2222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.0487804878</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>90.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -7095,14 +8964,35 @@
             <c:strRef>
               <c:f>Sheet2!$X$21:$X$30</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>-4,78</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-9,76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>-14,4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17,8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19,73</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-21,15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>-22,11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-22,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22,43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-24,05</c:v>
                 </c:pt>
               </c:strCache>
@@ -7113,14 +9003,35 @@
               <c:f>Sheet2!$AR$21:$AR$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>65.8536585366</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>80.5555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.7777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.0487804878</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>73.1707317073</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>63.4146341463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.5365853659</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
@@ -7136,11 +9047,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76065228"/>
-        <c:axId val="45273787"/>
+        <c:axId val="28258452"/>
+        <c:axId val="45569040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76065228"/>
+        <c:axId val="28258452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,14 +9087,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45273787"/>
+        <c:crossAx val="45569040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45273787"/>
+        <c:axId val="45569040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7229,7 +9140,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76065228"/>
+        <c:crossAx val="28258452"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7851,12 +9762,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="11572013"/>
-        <c:axId val="35930742"/>
-        <c:axId val="56680244"/>
+        <c:axId val="88880039"/>
+        <c:axId val="68822681"/>
+        <c:axId val="24910954"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="11572013"/>
+        <c:axId val="88880039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7892,14 +9803,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35930742"/>
+        <c:crossAx val="68822681"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35930742"/>
+        <c:axId val="68822681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7945,12 +9856,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11572013"/>
+        <c:crossAx val="88880039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="56680244"/>
+        <c:axId val="24910954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7986,7 +9897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35930742"/>
+        <c:crossAx val="68822681"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8720,12 +10631,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="87786985"/>
-        <c:axId val="75780758"/>
-        <c:axId val="51289465"/>
+        <c:axId val="83993468"/>
+        <c:axId val="48590627"/>
+        <c:axId val="34789596"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="87786985"/>
+        <c:axId val="83993468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8761,14 +10672,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75780758"/>
+        <c:crossAx val="48590627"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75780758"/>
+        <c:axId val="48590627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8814,12 +10725,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87786985"/>
+        <c:crossAx val="83993468"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="51289465"/>
+        <c:axId val="34789596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8855,7 +10766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75780758"/>
+        <c:crossAx val="48590627"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8906,10 +10817,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0888550596907299"/>
-          <c:y val="0.042137445168151"/>
-          <c:w val="0.720615335309671"/>
-          <c:h val="0.832247773494617"/>
+          <c:x val="0.0888635251915865"/>
+          <c:y val="0.0421088091628769"/>
+          <c:w val="0.720528289580956"/>
+          <c:h val="0.832070069058447"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9143,11 +11054,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80804596"/>
-        <c:axId val="83641121"/>
+        <c:axId val="49216925"/>
+        <c:axId val="92607306"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80804596"/>
+        <c:axId val="49216925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,12 +11094,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83641121"/>
+        <c:crossAx val="92607306"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83641121"/>
+        <c:axId val="92607306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,7 +11145,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80804596"/>
+        <c:crossAx val="49216925"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9276,15 +11187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
+      <xdr:colOff>714960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:colOff>132840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9292,8 +11203,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10356840" y="3429000"/>
-        <a:ext cx="4533480" cy="2137320"/>
+        <a:off x="10201680" y="3413880"/>
+        <a:ext cx="4418640" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9311,10 +11222,10 @@
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>790200</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9322,8 +11233,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17093160" y="5395320"/>
-        <a:ext cx="4407480" cy="2453400"/>
+        <a:off x="16785360" y="5364720"/>
+        <a:ext cx="4330800" cy="2414520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9335,8 +11246,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>772200</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
@@ -9344,7 +11255,7 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>703800</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9352,8 +11263,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21482640" y="5395320"/>
-        <a:ext cx="3884400" cy="2468160"/>
+        <a:off x="21098520" y="5364720"/>
+        <a:ext cx="3789000" cy="2429280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9366,15 +11277,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>38160</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
+      <xdr:colOff>733680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9382,8 +11293,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25491960" y="5395320"/>
-        <a:ext cx="3858120" cy="2458440"/>
+        <a:off x="24993720" y="5364720"/>
+        <a:ext cx="3781440" cy="2419560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9404,7 +11315,7 @@
       <xdr:col>43</xdr:col>
       <xdr:colOff>694080</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9412,8 +11323,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="29409120" y="5395320"/>
-        <a:ext cx="3853800" cy="2458440"/>
+        <a:off x="28815480" y="5364720"/>
+        <a:ext cx="3777480" cy="2419560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9426,13 +11337,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>538920</xdr:colOff>
+      <xdr:colOff>538560</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
@@ -9442,8 +11353,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9937800" y="6728400"/>
-        <a:ext cx="4567680" cy="2395800"/>
+        <a:off x="9782640" y="6665040"/>
+        <a:ext cx="4471920" cy="2392560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9456,15 +11367,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
+      <xdr:colOff>513360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9472,8 +11383,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="46820160" y="829080"/>
-        <a:ext cx="4502880" cy="2112120"/>
+        <a:off x="45893520" y="813600"/>
+        <a:ext cx="4435560" cy="2112120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9486,15 +11397,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>95040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9502,8 +11413,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="51640560" y="829080"/>
-        <a:ext cx="4493160" cy="2112120"/>
+        <a:off x="50637600" y="813600"/>
+        <a:ext cx="4416480" cy="2112120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9518,13 +11429,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>384120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9532,8 +11443,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="46545120" y="3429000"/>
-        <a:ext cx="4492080" cy="2137320"/>
+        <a:off x="45627840" y="3413880"/>
+        <a:ext cx="4415400" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9548,13 +11459,13 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>183960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>401400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9562,8 +11473,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="36515160" y="3429000"/>
-        <a:ext cx="4560840" cy="2137320"/>
+        <a:off x="35769240" y="3413880"/>
+        <a:ext cx="4484520" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9584,7 +11495,7 @@
       <xdr:col>86</xdr:col>
       <xdr:colOff>447840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9592,8 +11503,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="56631600" y="2834640"/>
-        <a:ext cx="4502880" cy="2692080"/>
+        <a:off x="55542600" y="2819520"/>
+        <a:ext cx="4436280" cy="2676240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9606,15 +11517,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>90</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>173880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
       <xdr:colOff>19080</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9622,8 +11533,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="63184320" y="6062040"/>
-        <a:ext cx="4493880" cy="2720520"/>
+        <a:off x="61990920" y="6015240"/>
+        <a:ext cx="4417200" cy="2700360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9636,15 +11547,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>90</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>97</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9652,8 +11563,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="63073440" y="3429000"/>
-        <a:ext cx="4505040" cy="2137320"/>
+        <a:off x="61880040" y="3413880"/>
+        <a:ext cx="4437720" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9666,15 +11577,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9682,8 +11593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67753080" y="3429000"/>
-        <a:ext cx="4740840" cy="2137320"/>
+        <a:off x="66483360" y="3413880"/>
+        <a:ext cx="4664160" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9698,11 +11609,11 @@
       <xdr:col>97</xdr:col>
       <xdr:colOff>434160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
@@ -9712,8 +11623,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67512240" y="6728400"/>
-        <a:ext cx="4712400" cy="2649960"/>
+        <a:off x="66251880" y="6665040"/>
+        <a:ext cx="4626360" cy="2646720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9728,13 +11639,13 @@
       <xdr:col>109</xdr:col>
       <xdr:colOff>435960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>117</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9742,8 +11653,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="74705400" y="3429000"/>
-        <a:ext cx="4504680" cy="2137320"/>
+        <a:off x="73321200" y="3413880"/>
+        <a:ext cx="4428000" cy="2112840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9756,15 +11667,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>118</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>51480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>125</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9772,8 +11683,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="79501320" y="2829960"/>
-        <a:ext cx="4512600" cy="2736360"/>
+        <a:off x="78031440" y="2814840"/>
+        <a:ext cx="4445640" cy="2711880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9786,15 +11697,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>110</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>117</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9802,8 +11713,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="74850840" y="6062040"/>
-        <a:ext cx="4514400" cy="2702520"/>
+        <a:off x="73457280" y="6015240"/>
+        <a:ext cx="4447080" cy="2682360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9816,15 +11727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>118</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>125</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9832,12 +11743,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="79501320" y="6062040"/>
-        <a:ext cx="4512600" cy="2702520"/>
+        <a:off x="78031440" y="6013440"/>
+        <a:ext cx="4445640" cy="2682720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>430920</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>475560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="92747160" y="6067080"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>322200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>366840</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="92638440" y="2768760"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>157</xdr:col>
+      <xdr:colOff>164880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>209520</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="100482120" y="2745360"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>157</xdr:col>
+      <xdr:colOff>432360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>477000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="100749600" y="6162840"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9858,9 +11889,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
@@ -10682,41 +12710,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ED65536"/>
+  <dimension ref="A1:FK97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N48" activeCellId="0" sqref="N48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EE13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="EE26" activeCellId="0" sqref="EE26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="49" min="45" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="58" min="52" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="102" min="60" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="104" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="49" min="45" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -10745,7 +12765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
@@ -10819,7 +12839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
@@ -10920,7 +12940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
@@ -11097,6 +13117,39 @@
       <c r="EB5" s="40"/>
       <c r="EC5" s="40"/>
       <c r="ED5" s="41"/>
+      <c r="EI5" s="39"/>
+      <c r="EJ5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="EK5" s="40"/>
+      <c r="EL5" s="40"/>
+      <c r="EM5" s="40"/>
+      <c r="EN5" s="40"/>
+      <c r="EO5" s="41"/>
+      <c r="EQ5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="ER5" s="40"/>
+      <c r="ES5" s="40"/>
+      <c r="ET5" s="40"/>
+      <c r="EU5" s="40"/>
+      <c r="EV5" s="41"/>
+      <c r="EX5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="EY5" s="40"/>
+      <c r="EZ5" s="40"/>
+      <c r="FA5" s="40"/>
+      <c r="FB5" s="40"/>
+      <c r="FC5" s="41"/>
+      <c r="FE5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF5" s="40"/>
+      <c r="FG5" s="40"/>
+      <c r="FH5" s="40"/>
+      <c r="FI5" s="40"/>
+      <c r="FJ5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -11399,6 +13452,91 @@
       <c r="ED6" s="57" t="s">
         <v>40</v>
       </c>
+      <c r="EI6" s="56"/>
+      <c r="EJ6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="EK6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="EL6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="EM6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN6" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="EO6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="EP6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="EQ6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="ER6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="ES6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="ET6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU6" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="EV6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="EW6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="EX6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="EY6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="EZ6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB6" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="FD6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="FE6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="FF6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="FG6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="FH6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="FI6" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="FJ6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="FK6" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -11533,7 +13671,7 @@
         <v>67.682926829275</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AZ7" s="53" t="n">
         <v>-17.8</v>
@@ -11717,6 +13855,100 @@
       <c r="ED7" s="19" t="n">
         <f aca="false">AVERAGE(DY7:EC7)</f>
         <v>75.1219512195</v>
+      </c>
+      <c r="EH7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="EI7" s="53" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="EJ7" s="19" t="n">
+        <v>72.2222222222</v>
+      </c>
+      <c r="EK7" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="EL7" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EM7" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EN7" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="EO7" s="19" t="n">
+        <f aca="false">AVERAGE(EJ7:EN7)</f>
+        <v>65</v>
+      </c>
+      <c r="EP7" s="61" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="EQ7" s="19" t="n">
+        <v>97.2222222222</v>
+      </c>
+      <c r="ER7" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="ES7" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="ET7" s="19" t="n">
+        <v>94.4444444444</v>
+      </c>
+      <c r="EU7" s="19" t="n">
+        <v>94.4444444444</v>
+      </c>
+      <c r="EV7" s="19" t="n">
+        <f aca="false">AVERAGE(EQ7:EU7)</f>
+        <v>97.2222222222</v>
+      </c>
+      <c r="EW7" s="62" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX7" s="19" t="n">
+        <v>68.2926829268</v>
+      </c>
+      <c r="EY7" s="19" t="n">
+        <v>44.4444444444</v>
+      </c>
+      <c r="EZ7" s="19" t="n">
+        <v>38.8888888889</v>
+      </c>
+      <c r="FA7" s="19" t="n">
+        <v>52.7777777778</v>
+      </c>
+      <c r="FB7" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="FC7" s="19" t="n">
+        <f aca="false">AVERAGE(EX7:FB7)</f>
+        <v>53.65853658536</v>
+      </c>
+      <c r="FD7" s="62" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="FE7" s="19" t="n">
+        <v>85.3658536585</v>
+      </c>
+      <c r="FF7" s="19" t="n">
+        <v>80.487804878</v>
+      </c>
+      <c r="FG7" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="FH7" s="19" t="n">
+        <v>73.1707317073</v>
+      </c>
+      <c r="FI7" s="19" t="n">
+        <v>65.8536585366</v>
+      </c>
+      <c r="FJ7" s="19" t="n">
+        <f aca="false">AVERAGE(FE7:FI7)</f>
+        <v>75.1219512195</v>
+      </c>
+      <c r="FK7" s="62" t="n">
+        <v>148.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11748,19 +13980,19 @@
       <c r="P8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="61" t="n">
+      <c r="Q8" s="63" t="n">
         <v>87.13939155521</v>
       </c>
-      <c r="R8" s="62" t="n">
+      <c r="R8" s="64" t="n">
         <v>78.027100271</v>
       </c>
-      <c r="S8" s="62" t="n">
+      <c r="S8" s="64" t="n">
         <v>77.36962572329</v>
       </c>
-      <c r="T8" s="62" t="n">
+      <c r="T8" s="64" t="n">
         <v>76.64218900253</v>
       </c>
-      <c r="U8" s="63" t="n">
+      <c r="U8" s="65" t="n">
         <v>73.62466124662</v>
       </c>
       <c r="X8" s="45" t="n">
@@ -11842,7 +14074,7 @@
         <v>65.972222222225</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AZ8" s="53" t="n">
         <v>-19.73</v>
@@ -11940,7 +14172,7 @@
         <v>97.2222222222</v>
       </c>
       <c r="DC8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DD8" s="0" t="n">
         <v>64.5</v>
@@ -12026,6 +14258,100 @@
       <c r="ED8" s="19" t="n">
         <f aca="false">AVERAGE(DY8:EC8)</f>
         <v>97.39784946238</v>
+      </c>
+      <c r="EH8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="EI8" s="53" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="EJ8" s="19" t="n">
+        <v>61.2903225806</v>
+      </c>
+      <c r="EK8" s="19" t="n">
+        <v>51.6129032258</v>
+      </c>
+      <c r="EL8" s="19" t="n">
+        <v>54.8387096774</v>
+      </c>
+      <c r="EM8" s="19" t="n">
+        <v>70.9677419355</v>
+      </c>
+      <c r="EN8" s="19" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="EO8" s="19" t="n">
+        <f aca="false">AVERAGE(EJ8:EN8)</f>
+        <v>61.49193548386</v>
+      </c>
+      <c r="EP8" s="61" t="n">
+        <v>951.6</v>
+      </c>
+      <c r="EQ8" s="19" t="n">
+        <v>46.1538461538</v>
+      </c>
+      <c r="ER8" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="ES8" s="19" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET8" s="19" t="n">
+        <v>44.8275862069</v>
+      </c>
+      <c r="EU8" s="19" t="n">
+        <v>59.2592592593</v>
+      </c>
+      <c r="EV8" s="19" t="n">
+        <f aca="false">AVERAGE(EQ8:EU8)</f>
+        <v>53.248138324</v>
+      </c>
+      <c r="EW8" s="62" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="EX8" s="19" t="n">
+        <v>68.5714285714</v>
+      </c>
+      <c r="EY8" s="19" t="n">
+        <v>54.2857142857</v>
+      </c>
+      <c r="EZ8" s="19" t="n">
+        <v>70</v>
+      </c>
+      <c r="FA8" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="FB8" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="FC8" s="19" t="n">
+        <f aca="false">AVERAGE(EX8:FB8)</f>
+        <v>60.23809523808</v>
+      </c>
+      <c r="FD8" s="62" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="FE8" s="19" t="n">
+        <v>93.5483870968</v>
+      </c>
+      <c r="FF8" s="19" t="n">
+        <v>96.6666666667</v>
+      </c>
+      <c r="FG8" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="FH8" s="19" t="n">
+        <v>96.7741935484</v>
+      </c>
+      <c r="FI8" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="FJ8" s="19" t="n">
+        <f aca="false">AVERAGE(FE8:FI8)</f>
+        <v>97.39784946238</v>
+      </c>
+      <c r="FK8" s="62" t="n">
+        <v>652.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12054,22 +14380,22 @@
       <c r="I9" s="0" t="n">
         <v>-9.76</v>
       </c>
-      <c r="P9" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="65" t="n">
+      <c r="P9" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="67" t="n">
         <v>68.405766276725</v>
       </c>
-      <c r="R9" s="66" t="n">
+      <c r="R9" s="68" t="n">
         <v>66.01203183345</v>
       </c>
-      <c r="S9" s="66" t="n">
+      <c r="S9" s="68" t="n">
         <v>66.0143904329225</v>
       </c>
-      <c r="T9" s="66" t="n">
+      <c r="T9" s="68" t="n">
         <v>67.53074380107</v>
       </c>
-      <c r="U9" s="67" t="n">
+      <c r="U9" s="69" t="n">
         <v>68.917753500455</v>
       </c>
       <c r="X9" s="45" t="n">
@@ -12151,7 +14477,7 @@
         <v>68.902439024375</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AZ9" s="53" t="n">
         <v>-24.05</v>
@@ -12249,7 +14575,7 @@
         <v>60.9756097561</v>
       </c>
       <c r="DC9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DD9" s="0" t="n">
         <v>286.3</v>
@@ -12335,6 +14661,100 @@
       <c r="ED9" s="19" t="n">
         <f aca="false">AVERAGE(DY9:EC9)</f>
         <v>85</v>
+      </c>
+      <c r="EH9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="EI9" s="53" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="EJ9" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="EK9" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="EL9" s="19" t="n">
+        <v>38.8888888889</v>
+      </c>
+      <c r="EM9" s="19" t="n">
+        <v>44.4444444444</v>
+      </c>
+      <c r="EN9" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="EO9" s="19" t="n">
+        <f aca="false">AVERAGE(EJ9:EN9)</f>
+        <v>50.55555555556</v>
+      </c>
+      <c r="EP9" s="61" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="EQ9" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="ER9" s="19" t="n">
+        <v>75</v>
+      </c>
+      <c r="ES9" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="ET9" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="EU9" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="EV9" s="19" t="n">
+        <f aca="false">AVERAGE(EQ9:EU9)</f>
+        <v>66.66666666668</v>
+      </c>
+      <c r="EW9" s="62" t="n">
+        <v>603.6</v>
+      </c>
+      <c r="EX9" s="19" t="n">
+        <v>77.7777777778</v>
+      </c>
+      <c r="EY9" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="EZ9" s="19" t="n">
+        <v>86.1111111111</v>
+      </c>
+      <c r="FA9" s="19" t="n">
+        <v>86.1111111111</v>
+      </c>
+      <c r="FB9" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FC9" s="19" t="n">
+        <f aca="false">AVERAGE(EX9:FB9)</f>
+        <v>85.55555555556</v>
+      </c>
+      <c r="FD9" s="62" t="n">
+        <v>707</v>
+      </c>
+      <c r="FE9" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FF9" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FG9" s="19" t="n">
+        <v>83.3333333333</v>
+      </c>
+      <c r="FH9" s="19" t="n">
+        <v>83.3333333333</v>
+      </c>
+      <c r="FI9" s="19" t="n">
+        <v>80.5555555556</v>
+      </c>
+      <c r="FJ9" s="19" t="n">
+        <f aca="false">AVERAGE(FE9:FI9)</f>
+        <v>85</v>
+      </c>
+      <c r="FK9" s="62" t="n">
+        <v>106.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12446,7 +14866,7 @@
         <v>71.9512195122</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ10" s="53" t="n">
         <v>-22.11</v>
@@ -12544,7 +14964,7 @@
         <v>56.58536585364</v>
       </c>
       <c r="DC10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="DD10" s="0" t="n">
         <v>369.2</v>
@@ -12630,6 +15050,100 @@
       <c r="ED10" s="19" t="n">
         <f aca="false">AVERAGE(DY10:EC10)</f>
         <v>66.11111111112</v>
+      </c>
+      <c r="EH10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="EI10" s="53" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="EJ10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EK10" s="19" t="n">
+        <v>52.7777777778</v>
+      </c>
+      <c r="EL10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EM10" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="EN10" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="EO10" s="19" t="n">
+        <f aca="false">AVERAGE(EJ10:EN10)</f>
+        <v>60</v>
+      </c>
+      <c r="EP10" s="61" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="EQ10" s="19" t="n">
+        <v>52.7777777778</v>
+      </c>
+      <c r="ER10" s="19" t="n">
+        <v>52.7777777778</v>
+      </c>
+      <c r="ES10" s="19" t="n">
+        <v>41.6666666667</v>
+      </c>
+      <c r="ET10" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="EU10" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="EV10" s="19" t="n">
+        <f aca="false">AVERAGE(EQ10:EU10)</f>
+        <v>55.00000000002</v>
+      </c>
+      <c r="EW10" s="62" t="n">
+        <v>754.1</v>
+      </c>
+      <c r="EX10" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="EY10" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="EZ10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="FA10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="FB10" s="19" t="n">
+        <v>72.2222222222</v>
+      </c>
+      <c r="FC10" s="19" t="n">
+        <f aca="false">AVERAGE(EX10:FB10)</f>
+        <v>65.55555555556</v>
+      </c>
+      <c r="FD10" s="62" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="FE10" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FF10" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="FG10" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="FH10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="FI10" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="FJ10" s="19" t="n">
+        <f aca="false">AVERAGE(FE10:FI10)</f>
+        <v>66.11111111112</v>
+      </c>
+      <c r="FK10" s="62" t="n">
+        <v>97.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12668,20 +15182,20 @@
         <f aca="false">N10+N6</f>
         <v>41.8</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69" t="s">
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="69" t="s">
+      <c r="R11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="69" t="s">
+      <c r="S11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="71" t="s">
         <v>37</v>
       </c>
       <c r="V11" s="9"/>
@@ -12764,7 +15278,7 @@
         <v>66.463414634125</v>
       </c>
       <c r="AY11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AZ11" s="53" t="n">
         <v>-21.15</v>
@@ -12948,6 +15462,100 @@
       <c r="ED11" s="19" t="n">
         <f aca="false">AVERAGE(DY11:EC11)</f>
         <v>65.36585365852</v>
+      </c>
+      <c r="EH11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI11" s="53" t="n">
+        <v>-22.11</v>
+      </c>
+      <c r="EJ11" s="19" t="n">
+        <v>53.6585365854</v>
+      </c>
+      <c r="EK11" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="EL11" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="EM11" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="EN11" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EO11" s="19" t="n">
+        <f aca="false">AVERAGE(EJ11:EN11)</f>
+        <v>54.63414634146</v>
+      </c>
+      <c r="EP11" s="61" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="EQ11" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="ER11" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="ES11" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="ET11" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EU11" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="EV11" s="19" t="n">
+        <f aca="false">AVERAGE(EQ11:EU11)</f>
+        <v>58.53658536584</v>
+      </c>
+      <c r="EW11" s="62" t="n">
+        <v>649.2</v>
+      </c>
+      <c r="EX11" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="EY11" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="EZ11" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="FA11" s="19" t="n">
+        <v>85.3658536585</v>
+      </c>
+      <c r="FB11" s="19" t="n">
+        <v>87.8048780488</v>
+      </c>
+      <c r="FC11" s="19" t="n">
+        <f aca="false">AVERAGE(EX11:FB11)</f>
+        <v>75.60975609756</v>
+      </c>
+      <c r="FD11" s="62" t="n">
+        <v>674.7</v>
+      </c>
+      <c r="FE11" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="FF11" s="19" t="n">
+        <v>65.8536585366</v>
+      </c>
+      <c r="FG11" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="FH11" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="FI11" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="FJ11" s="19" t="n">
+        <f aca="false">AVERAGE(FE11:FI11)</f>
+        <v>65.36585365852</v>
+      </c>
+      <c r="FK11" s="62" t="n">
+        <v>92.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13081,7 +15689,7 @@
         <v>69.444444444475</v>
       </c>
       <c r="AY12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ12" s="53" t="n">
         <v>-22.43</v>
@@ -13265,6 +15873,100 @@
       <c r="ED12" s="19" t="n">
         <f aca="false">AVERAGE(DY12:EC12)</f>
         <v>70.73170731708</v>
+      </c>
+      <c r="EH12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="EI12" s="53" t="n">
+        <v>-22.43</v>
+      </c>
+      <c r="EJ12" s="19" t="n">
+        <v>65.8536585366</v>
+      </c>
+      <c r="EK12" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="EL12" s="19" t="n">
+        <v>58.5365853659</v>
+      </c>
+      <c r="EM12" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="EN12" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="EO12" s="19" t="n">
+        <f aca="false">AVERAGE(EJ12:EN12)</f>
+        <v>60</v>
+      </c>
+      <c r="EP12" s="61" t="n">
+        <v>144</v>
+      </c>
+      <c r="EQ12" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="ER12" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="ES12" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="ET12" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EU12" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="EV12" s="19" t="n">
+        <f aca="false">AVERAGE(EQ12:EU12)</f>
+        <v>60.9756097561</v>
+      </c>
+      <c r="EW12" s="62" t="n">
+        <v>562</v>
+      </c>
+      <c r="EX12" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="EY12" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EZ12" s="19" t="n">
+        <v>73.1707317073</v>
+      </c>
+      <c r="FA12" s="19" t="n">
+        <v>65.8536585366</v>
+      </c>
+      <c r="FB12" s="19" t="n">
+        <v>78.0487804878</v>
+      </c>
+      <c r="FC12" s="19" t="n">
+        <f aca="false">AVERAGE(EX12:FB12)</f>
+        <v>66.82926829268</v>
+      </c>
+      <c r="FD12" s="62" t="n">
+        <v>606</v>
+      </c>
+      <c r="FE12" s="19" t="n">
+        <v>85.3658536585</v>
+      </c>
+      <c r="FF12" s="19" t="n">
+        <v>70.7317073171</v>
+      </c>
+      <c r="FG12" s="19" t="n">
+        <v>75.6097560976</v>
+      </c>
+      <c r="FH12" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="FI12" s="19" t="n">
+        <v>58.5365853659</v>
+      </c>
+      <c r="FJ12" s="19" t="n">
+        <f aca="false">AVERAGE(FE12:FI12)</f>
+        <v>70.73170731708</v>
+      </c>
+      <c r="FK12" s="62" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13398,7 +16100,7 @@
         <v>71.5277777778</v>
       </c>
       <c r="AY13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AZ13" s="53" t="n">
         <v>-22.3</v>
@@ -13496,7 +16198,7 @@
         <v>59.0243902439</v>
       </c>
       <c r="DC13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DD13" s="0" t="n">
         <v>605</v>
@@ -13582,6 +16284,100 @@
       <c r="ED13" s="19" t="n">
         <f aca="false">AVERAGE(DY13:EC13)</f>
         <v>78.53658536584</v>
+      </c>
+      <c r="EH13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="EI13" s="53" t="n">
+        <v>-21.15</v>
+      </c>
+      <c r="EJ13" s="19" t="n">
+        <v>80.487804878</v>
+      </c>
+      <c r="EK13" s="19" t="n">
+        <v>48.7804878049</v>
+      </c>
+      <c r="EL13" s="19" t="n">
+        <v>43.9024390244</v>
+      </c>
+      <c r="EM13" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="EN13" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EO13" s="19" t="n">
+        <f aca="false">AVERAGE(EJ13:EN13)</f>
+        <v>57.0731707317</v>
+      </c>
+      <c r="EP13" s="61" t="n">
+        <v>192</v>
+      </c>
+      <c r="EQ13" s="19" t="n">
+        <v>46.3414634146</v>
+      </c>
+      <c r="ER13" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="ES13" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="ET13" s="19" t="n">
+        <v>63.4146341463</v>
+      </c>
+      <c r="EU13" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EV13" s="19" t="n">
+        <f aca="false">AVERAGE(EQ13:EU13)</f>
+        <v>56.58536585364</v>
+      </c>
+      <c r="EW13" s="62" t="n">
+        <v>447</v>
+      </c>
+      <c r="EX13" s="19" t="n">
+        <v>46.3414634146</v>
+      </c>
+      <c r="EY13" s="19" t="n">
+        <v>68.2926829268</v>
+      </c>
+      <c r="EZ13" s="19" t="n">
+        <v>80.487804878</v>
+      </c>
+      <c r="FA13" s="19" t="n">
+        <v>80.487804878</v>
+      </c>
+      <c r="FB13" s="19" t="n">
+        <v>92.6829268293</v>
+      </c>
+      <c r="FC13" s="19" t="n">
+        <f aca="false">AVERAGE(EX13:FB13)</f>
+        <v>73.65853658534</v>
+      </c>
+      <c r="FD13" s="62" t="n">
+        <v>503</v>
+      </c>
+      <c r="FE13" s="19" t="n">
+        <v>85.3658536585</v>
+      </c>
+      <c r="FF13" s="19" t="n">
+        <v>78.0487804878</v>
+      </c>
+      <c r="FG13" s="19" t="n">
+        <v>80.487804878</v>
+      </c>
+      <c r="FH13" s="19" t="n">
+        <v>75.6097560976</v>
+      </c>
+      <c r="FI13" s="19" t="n">
+        <v>73.1707317073</v>
+      </c>
+      <c r="FJ13" s="19" t="n">
+        <f aca="false">AVERAGE(FE13:FI13)</f>
+        <v>78.53658536584</v>
+      </c>
+      <c r="FK13" s="62" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13715,7 +16511,7 @@
         <v>69.502314814825</v>
       </c>
       <c r="AY14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AZ14" s="53" t="n">
         <v>-9.76</v>
@@ -13902,6 +16698,100 @@
       <c r="ED14" s="19" t="n">
         <f aca="false">AVERAGE(DY14:EC14)</f>
         <v>80.66066066066</v>
+      </c>
+      <c r="EH14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI14" s="53" t="n">
+        <v>-24.05</v>
+      </c>
+      <c r="EJ14" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="EK14" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="EL14" s="19" t="n">
+        <v>41.6666666667</v>
+      </c>
+      <c r="EM14" s="19" t="n">
+        <v>41.6666666667</v>
+      </c>
+      <c r="EN14" s="19" t="n">
+        <v>38.8888888889</v>
+      </c>
+      <c r="EO14" s="19" t="n">
+        <f aca="false">AVERAGE(EJ14:EN14)</f>
+        <v>47.22222222224</v>
+      </c>
+      <c r="EP14" s="61" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="EQ14" s="19" t="n">
+        <v>47.2222222222</v>
+      </c>
+      <c r="ER14" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="ES14" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="ET14" s="19" t="n">
+        <v>66.6666666667</v>
+      </c>
+      <c r="EU14" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EV14" s="19" t="n">
+        <f aca="false">AVERAGE(EQ14:EU14)</f>
+        <v>59.44444444444</v>
+      </c>
+      <c r="EW14" s="62" t="n">
+        <v>632.8</v>
+      </c>
+      <c r="EX14" s="19" t="n">
+        <v>58.3333333333</v>
+      </c>
+      <c r="EY14" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="EZ14" s="19" t="n">
+        <v>77.7777777778</v>
+      </c>
+      <c r="FA14" s="19" t="n">
+        <v>90.625</v>
+      </c>
+      <c r="FB14" s="19" t="n">
+        <v>90.625</v>
+      </c>
+      <c r="FC14" s="19" t="n">
+        <f aca="false">AVERAGE(EX14:FB14)</f>
+        <v>75.69444444444</v>
+      </c>
+      <c r="FD14" s="62" t="n">
+        <v>481.4</v>
+      </c>
+      <c r="FE14" s="19" t="n">
+        <v>91.6666666667</v>
+      </c>
+      <c r="FF14" s="19" t="n">
+        <v>72.2222222222</v>
+      </c>
+      <c r="FG14" s="19" t="n">
+        <v>81.0810810811</v>
+      </c>
+      <c r="FH14" s="19" t="n">
+        <v>83.3333333333</v>
+      </c>
+      <c r="FI14" s="19" t="n">
+        <v>75</v>
+      </c>
+      <c r="FJ14" s="19" t="n">
+        <f aca="false">AVERAGE(FE14:FI14)</f>
+        <v>80.66066066066</v>
+      </c>
+      <c r="FK14" s="62" t="n">
+        <v>221.9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13961,19 +16851,19 @@
       <c r="X15" s="45" t="n">
         <v>-4.78</v>
       </c>
-      <c r="Y15" s="61" t="n">
+      <c r="Y15" s="63" t="n">
         <v>72.2222222222</v>
       </c>
-      <c r="Z15" s="62" t="n">
+      <c r="Z15" s="64" t="n">
         <v>66.6666666667</v>
       </c>
-      <c r="AA15" s="62" t="n">
+      <c r="AA15" s="64" t="n">
         <v>63.8888888889</v>
       </c>
-      <c r="AB15" s="62" t="n">
+      <c r="AB15" s="64" t="n">
         <v>63.8888888889</v>
       </c>
-      <c r="AC15" s="70" t="n">
+      <c r="AC15" s="72" t="n">
         <v>58.3333333333</v>
       </c>
       <c r="AD15" s="47" t="n">
@@ -13991,19 +16881,19 @@
       <c r="AH15" s="47" t="n">
         <v>94.4444444444</v>
       </c>
-      <c r="AI15" s="61" t="n">
+      <c r="AI15" s="63" t="n">
         <v>68.2926829268</v>
       </c>
-      <c r="AJ15" s="62" t="n">
+      <c r="AJ15" s="64" t="n">
         <v>44.4444444444</v>
       </c>
-      <c r="AK15" s="62" t="n">
+      <c r="AK15" s="64" t="n">
         <v>38.8888888889</v>
       </c>
-      <c r="AL15" s="62" t="n">
+      <c r="AL15" s="64" t="n">
         <v>52.7777777778</v>
       </c>
-      <c r="AM15" s="70" t="n">
+      <c r="AM15" s="72" t="n">
         <v>63.8888888889</v>
       </c>
       <c r="AN15" s="47" t="n">
@@ -14021,23 +16911,23 @@
       <c r="AR15" s="47" t="n">
         <v>65.8536585366</v>
       </c>
-      <c r="AS15" s="71" t="n">
+      <c r="AS15" s="73" t="n">
         <v>80.775745257425</v>
       </c>
       <c r="AT15" s="51" t="n">
         <v>72.899728997275</v>
       </c>
-      <c r="AU15" s="71" t="n">
+      <c r="AU15" s="73" t="n">
         <v>68.377371273725</v>
       </c>
       <c r="AV15" s="51" t="n">
         <v>71.0704607046</v>
       </c>
-      <c r="AW15" s="72" t="n">
+      <c r="AW15" s="74" t="n">
         <v>70.6300813008</v>
       </c>
       <c r="AY15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AZ15" s="53" t="n">
         <v>-4.78</v>
@@ -14135,7 +17025,7 @@
         <v>58.8888888889</v>
       </c>
       <c r="DC15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="DD15" s="0" t="n">
         <v>737</v>
@@ -14221,6 +17111,100 @@
       <c r="ED15" s="19" t="n">
         <f aca="false">AVERAGE(DY15:EC15)</f>
         <v>83.9024390244</v>
+      </c>
+      <c r="EH15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="EI15" s="53" t="n">
+        <v>-19.73</v>
+      </c>
+      <c r="EJ15" s="19" t="n">
+        <v>53.6585365854</v>
+      </c>
+      <c r="EK15" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="EL15" s="19" t="n">
+        <v>51.2195121951</v>
+      </c>
+      <c r="EM15" s="19" t="n">
+        <v>46.3414634146</v>
+      </c>
+      <c r="EN15" s="19" t="n">
+        <v>41.4634146341</v>
+      </c>
+      <c r="EO15" s="19" t="n">
+        <f aca="false">AVERAGE(EJ15:EN15)</f>
+        <v>49.75609756096</v>
+      </c>
+      <c r="EP15" s="61" t="n">
+        <v>182</v>
+      </c>
+      <c r="EQ15" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="ER15" s="19" t="n">
+        <v>56.0975609756</v>
+      </c>
+      <c r="ES15" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="ET15" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EU15" s="19" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EV15" s="19" t="n">
+        <f aca="false">AVERAGE(EQ15:EU15)</f>
+        <v>59.0243902439</v>
+      </c>
+      <c r="EW15" s="62" t="n">
+        <v>472</v>
+      </c>
+      <c r="EX15" s="19" t="n">
+        <v>68.2926829268</v>
+      </c>
+      <c r="EY15" s="19" t="n">
+        <v>68.2926829268</v>
+      </c>
+      <c r="EZ15" s="19" t="n">
+        <v>78.0487804878</v>
+      </c>
+      <c r="FA15" s="19" t="n">
+        <v>92.6829268293</v>
+      </c>
+      <c r="FB15" s="19" t="n">
+        <v>85.3658536585</v>
+      </c>
+      <c r="FC15" s="19" t="n">
+        <f aca="false">AVERAGE(EX15:FB15)</f>
+        <v>78.53658536584</v>
+      </c>
+      <c r="FD15" s="62" t="n">
+        <v>540</v>
+      </c>
+      <c r="FE15" s="19" t="n">
+        <v>92.6829268293</v>
+      </c>
+      <c r="FF15" s="19" t="n">
+        <v>82.9268292683</v>
+      </c>
+      <c r="FG15" s="19" t="n">
+        <v>82.9268292683</v>
+      </c>
+      <c r="FH15" s="19" t="n">
+        <v>82.9268292683</v>
+      </c>
+      <c r="FI15" s="19" t="n">
+        <v>78.0487804878</v>
+      </c>
+      <c r="FJ15" s="19" t="n">
+        <f aca="false">AVERAGE(FE15:FI15)</f>
+        <v>83.9024390244</v>
+      </c>
+      <c r="FK15" s="62" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14249,82 +17233,82 @@
       <c r="I16" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="X16" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y16" s="65" t="n">
+      <c r="X16" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="67" t="n">
         <v>63.71710813881</v>
       </c>
-      <c r="Z16" s="66" t="n">
+      <c r="Z16" s="68" t="n">
         <v>56.31305184021</v>
       </c>
-      <c r="AA16" s="66" t="n">
+      <c r="AA16" s="68" t="n">
         <v>53.19389806802</v>
       </c>
-      <c r="AB16" s="66" t="n">
+      <c r="AB16" s="68" t="n">
         <v>53.14013462714</v>
       </c>
-      <c r="AC16" s="73" t="n">
+      <c r="AC16" s="75" t="n">
         <v>56.50237127371</v>
       </c>
-      <c r="AD16" s="65" t="n">
+      <c r="AD16" s="67" t="n">
         <v>58.44329789451</v>
       </c>
-      <c r="AE16" s="66" t="n">
+      <c r="AE16" s="68" t="n">
         <v>63.56124661246</v>
       </c>
-      <c r="AF16" s="66" t="n">
+      <c r="AF16" s="68" t="n">
         <v>60.13902439025</v>
       </c>
-      <c r="AG16" s="66" t="n">
+      <c r="AG16" s="68" t="n">
         <v>64.95023829548</v>
       </c>
-      <c r="AH16" s="73" t="n">
+      <c r="AH16" s="75" t="n">
         <v>65.70234869016</v>
       </c>
-      <c r="AI16" s="65" t="n">
+      <c r="AI16" s="67" t="n">
         <v>64.32326751837</v>
       </c>
-      <c r="AJ16" s="66" t="n">
+      <c r="AJ16" s="68" t="n">
         <v>66.14672861013</v>
       </c>
-      <c r="AK16" s="66" t="n">
+      <c r="AK16" s="68" t="n">
         <v>73.35501355013</v>
       </c>
-      <c r="AL16" s="66" t="n">
+      <c r="AL16" s="68" t="n">
         <v>75.39041327913</v>
       </c>
-      <c r="AM16" s="73" t="n">
+      <c r="AM16" s="75" t="n">
         <v>79.84163279133</v>
       </c>
-      <c r="AN16" s="65" t="n">
+      <c r="AN16" s="67" t="n">
         <v>87.13939155521</v>
       </c>
-      <c r="AO16" s="66" t="n">
+      <c r="AO16" s="68" t="n">
         <v>78.027100271</v>
       </c>
-      <c r="AP16" s="66" t="n">
+      <c r="AP16" s="68" t="n">
         <v>77.36962572329</v>
       </c>
-      <c r="AQ16" s="66" t="n">
+      <c r="AQ16" s="68" t="n">
         <v>76.64218900253</v>
       </c>
-      <c r="AR16" s="73" t="n">
+      <c r="AR16" s="75" t="n">
         <v>73.62466124662</v>
       </c>
-      <c r="AS16" s="74" t="n">
+      <c r="AS16" s="76" t="n">
         <v>68.405766276725</v>
       </c>
-      <c r="AT16" s="74" t="n">
+      <c r="AT16" s="76" t="n">
         <v>66.01203183345</v>
       </c>
-      <c r="AU16" s="74" t="n">
+      <c r="AU16" s="76" t="n">
         <v>66.0143904329225</v>
       </c>
-      <c r="AV16" s="74" t="n">
+      <c r="AV16" s="76" t="n">
         <v>67.53074380107</v>
       </c>
-      <c r="AW16" s="75" t="n">
+      <c r="AW16" s="77" t="n">
         <v>68.917753500455</v>
       </c>
       <c r="CB16" s="0" t="n">
@@ -14397,7 +17381,7 @@
         <v>66.66666666668</v>
       </c>
       <c r="DC16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="DD16" s="0" t="n">
         <v>774.6</v>
@@ -14484,8 +17468,102 @@
         <f aca="false">AVERAGE(DY16:EC16)</f>
         <v>82.7777777778</v>
       </c>
+      <c r="EH16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="EI16" s="53" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="EJ16" s="19" t="n">
+        <v>69.4444444444</v>
+      </c>
+      <c r="EK16" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EL16" s="19" t="n">
+        <v>63.8888888889</v>
+      </c>
+      <c r="EM16" s="19" t="n">
+        <v>47.2222222222</v>
+      </c>
+      <c r="EN16" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="EO16" s="19" t="n">
+        <f aca="false">AVERAGE(EJ16:EN16)</f>
+        <v>60</v>
+      </c>
+      <c r="EP16" s="61" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="EQ16" s="19" t="n">
+        <v>52.7777777778</v>
+      </c>
+      <c r="ER16" s="19" t="n">
+        <v>61.1111111111</v>
+      </c>
+      <c r="ES16" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="ET16" s="19" t="n">
+        <v>69.4444444444</v>
+      </c>
+      <c r="EU16" s="19" t="n">
+        <v>55.5555555556</v>
+      </c>
+      <c r="EV16" s="19" t="n">
+        <f aca="false">AVERAGE(EQ16:EU16)</f>
+        <v>58.8888888889</v>
+      </c>
+      <c r="EW16" s="62" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="EX16" s="19" t="n">
+        <v>69.4444444444</v>
+      </c>
+      <c r="EY16" s="19" t="n">
+        <v>83.3333333333</v>
+      </c>
+      <c r="EZ16" s="19" t="n">
+        <v>94.4444444444</v>
+      </c>
+      <c r="FA16" s="19" t="n">
+        <v>77.7777777778</v>
+      </c>
+      <c r="FB16" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FC16" s="19" t="n">
+        <f aca="false">AVERAGE(EX16:FB16)</f>
+        <v>82.77777777776</v>
+      </c>
+      <c r="FD16" s="62" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="FE16" s="19" t="n">
+        <v>88.8888888889</v>
+      </c>
+      <c r="FF16" s="19" t="n">
+        <v>86.1111111111</v>
+      </c>
+      <c r="FG16" s="19" t="n">
+        <v>80.5555555556</v>
+      </c>
+      <c r="FH16" s="19" t="n">
+        <v>80.5555555556</v>
+      </c>
+      <c r="FI16" s="19" t="n">
+        <v>77.7777777778</v>
+      </c>
+      <c r="FJ16" s="19" t="n">
+        <f aca="false">AVERAGE(FE16:FI16)</f>
+        <v>82.7777777778</v>
+      </c>
+      <c r="FK16" s="62" t="n">
+        <v>305.1</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <f aca="false">B13+1</f>
         <v>4</v>
@@ -15298,6 +18376,18 @@
       <c r="BC25" s="0" t="n">
         <v>65.55555555556</v>
       </c>
+      <c r="EL25" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="EM25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="EZ25" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA25" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -15397,6 +18487,24 @@
       <c r="BC26" s="0" t="n">
         <v>82.77777777776</v>
       </c>
+      <c r="EK26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="EL26" s="78" t="n">
+        <v>22</v>
+      </c>
+      <c r="EM26" s="79" t="n">
+        <v>97.2222222222</v>
+      </c>
+      <c r="EY26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="EZ26" s="78" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="FA26" s="79" t="n">
+        <v>60.23809523808</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -15502,8 +18610,26 @@
       <c r="BC27" s="0" t="n">
         <v>85.55555555556</v>
       </c>
+      <c r="EK27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="EL27" s="78" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="EM27" s="79" t="n">
+        <v>53.248138324</v>
+      </c>
+      <c r="EY27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="EZ27" s="78" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="FA27" s="79" t="n">
+        <v>53.65853658536</v>
+      </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <f aca="false">B24+1</f>
         <v>7</v>
@@ -15595,8 +18721,26 @@
       <c r="AR28" s="19" t="n">
         <v>63.8888888889</v>
       </c>
+      <c r="EK28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="EL28" s="78" t="n">
+        <v>447</v>
+      </c>
+      <c r="EM28" s="79" t="n">
+        <v>56.58536585364</v>
+      </c>
+      <c r="EY28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="EZ28" s="78" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="FA28" s="79" t="n">
+        <v>82.77777777776</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <f aca="false">B25+1</f>
         <v>7</v>
@@ -15688,8 +18832,26 @@
       <c r="AR29" s="19" t="n">
         <v>58.5365853659</v>
       </c>
+      <c r="EK29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="EL29" s="78" t="n">
+        <v>472</v>
+      </c>
+      <c r="EM29" s="79" t="n">
+        <v>59.0243902439</v>
+      </c>
+      <c r="EY29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="EZ29" s="78" t="n">
+        <v>481.4</v>
+      </c>
+      <c r="FA29" s="79" t="n">
+        <v>75.69444444444</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <f aca="false">B26+1</f>
         <v>7</v>
@@ -15781,8 +18943,26 @@
       <c r="AR30" s="19" t="n">
         <v>75</v>
       </c>
+      <c r="EK30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL30" s="78" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="EM30" s="79" t="n">
+        <v>58.8888888889</v>
+      </c>
+      <c r="EY30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ30" s="78" t="n">
+        <v>503</v>
+      </c>
+      <c r="FA30" s="79" t="n">
+        <v>73.65853658534</v>
+      </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>2</v>
       </c>
@@ -15814,8 +18994,26 @@
       <c r="J31" s="0" t="n">
         <v>-22.3</v>
       </c>
+      <c r="EK31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="EL31" s="78" t="n">
+        <v>562</v>
+      </c>
+      <c r="EM31" s="79" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EY31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ31" s="78" t="n">
+        <v>540</v>
+      </c>
+      <c r="FA31" s="79" t="n">
+        <v>78.53658536584</v>
+      </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <f aca="false">B28+1</f>
         <v>8</v>
@@ -15841,8 +19039,26 @@
       <c r="I32" s="0" t="n">
         <v>-22.3</v>
       </c>
+      <c r="EK32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="EL32" s="78" t="n">
+        <v>603.6</v>
+      </c>
+      <c r="EM32" s="79" t="n">
+        <v>66.66666666668</v>
+      </c>
+      <c r="EY32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="EZ32" s="78" t="n">
+        <v>606</v>
+      </c>
+      <c r="FA32" s="79" t="n">
+        <v>66.82926829268</v>
+      </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <f aca="false">B29+1</f>
         <v>8</v>
@@ -15868,8 +19084,26 @@
       <c r="I33" s="0" t="n">
         <v>-22.3</v>
       </c>
+      <c r="EK33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="EL33" s="78" t="n">
+        <v>632.8</v>
+      </c>
+      <c r="EM33" s="79" t="n">
+        <v>59.44444444444</v>
+      </c>
+      <c r="EY33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="EZ33" s="78" t="n">
+        <v>674.7</v>
+      </c>
+      <c r="FA33" s="79" t="n">
+        <v>75.60975609756</v>
+      </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <f aca="false">B30+1</f>
         <v>8</v>
@@ -15895,8 +19129,26 @@
       <c r="I34" s="0" t="n">
         <v>-22.3</v>
       </c>
+      <c r="EK34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="EL34" s="78" t="n">
+        <v>649.2</v>
+      </c>
+      <c r="EM34" s="79" t="n">
+        <v>58.53658536584</v>
+      </c>
+      <c r="EY34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="EZ34" s="78" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="FA34" s="79" t="n">
+        <v>65.55555555556</v>
+      </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>6</v>
       </c>
@@ -15928,8 +19180,26 @@
       <c r="J35" s="0" t="n">
         <v>-22.43</v>
       </c>
+      <c r="EK35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="EL35" s="78" t="n">
+        <v>754.1</v>
+      </c>
+      <c r="EM35" s="79" t="n">
+        <v>55.00000000002</v>
+      </c>
+      <c r="EY35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ35" s="78" t="n">
+        <v>707</v>
+      </c>
+      <c r="FA35" s="79" t="n">
+        <v>85.55555555556</v>
+      </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
         <f aca="false">B32+1</f>
         <v>9</v>
@@ -15956,7 +19226,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
         <f aca="false">B33+1</f>
         <v>9</v>
@@ -15983,7 +19253,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <f aca="false">B34+1</f>
         <v>9</v>
@@ -16010,7 +19280,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>0</v>
       </c>
@@ -16043,7 +19313,7 @@
         <v>-24.05</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
         <f aca="false">B36+1</f>
         <v>10</v>
@@ -16069,8 +19339,20 @@
       <c r="I40" s="0" t="n">
         <v>-24.05</v>
       </c>
+      <c r="EL40" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="EM40" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="EZ40" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="FA40" s="81" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <f aca="false">B37+1</f>
         <v>10</v>
@@ -16096,8 +19378,27 @@
       <c r="I41" s="0" t="n">
         <v>-24.05</v>
       </c>
+      <c r="EH41" s="9"/>
+      <c r="EK41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="EL41" s="82" t="n">
+        <v>144</v>
+      </c>
+      <c r="EM41" s="79" t="n">
+        <v>60</v>
+      </c>
+      <c r="EY41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="EZ41" s="78" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="FA41" s="79" t="n">
+        <v>65.36585365852</v>
+      </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <f aca="false">B38+1</f>
         <v>10</v>
@@ -16123,42 +19424,221 @@
       <c r="I42" s="0" t="n">
         <v>-24.05</v>
       </c>
+      <c r="EK42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="EL42" s="82" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="EM42" s="79" t="n">
+        <v>54.63414634146</v>
+      </c>
+      <c r="EY42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="EZ42" s="78" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="FA42" s="79" t="n">
+        <v>66.11111111112</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK43" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="EL43" s="82" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="EM43" s="79" t="n">
+        <v>60</v>
+      </c>
+      <c r="EY43" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="EZ43" s="78" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="FA43" s="79" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="EL44" s="82" t="n">
+        <v>182</v>
+      </c>
+      <c r="EM44" s="79" t="n">
+        <v>49.75609756096</v>
+      </c>
+      <c r="EY44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="EZ44" s="78" t="n">
+        <v>109</v>
+      </c>
+      <c r="FA44" s="79" t="n">
+        <v>70.73170731708</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL45" s="82" t="n">
+        <v>192</v>
+      </c>
+      <c r="EM45" s="79" t="n">
+        <v>57.0731707317</v>
+      </c>
+      <c r="EY45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="EZ45" s="78" t="n">
+        <v>133</v>
+      </c>
+      <c r="FA45" s="79" t="n">
+        <v>83.9024390244</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EH46" s="9"/>
+      <c r="EK46" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="EL46" s="82" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="EM46" s="79" t="n">
+        <v>50.55555555556</v>
+      </c>
+      <c r="EY46" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="EZ46" s="78" t="n">
+        <v>146</v>
+      </c>
+      <c r="FA46" s="79" t="n">
+        <v>78.53658536584</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="EL47" s="82" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="EM47" s="79" t="n">
+        <v>47.22222222224</v>
+      </c>
+      <c r="EY47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="EZ47" s="78" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="FA47" s="79" t="n">
+        <v>75.1219512195</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="EL48" s="82" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="EM48" s="79" t="n">
+        <v>60</v>
+      </c>
+      <c r="EY48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="EZ48" s="78" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="FA48" s="79" t="n">
+        <v>80.66066066066</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="EL49" s="82" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="EM49" s="79" t="n">
+        <v>65</v>
+      </c>
+      <c r="EY49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="EZ49" s="78" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="FA49" s="79" t="n">
+        <v>82.7777777778</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="EK50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="EL50" s="82" t="n">
+        <v>951.6</v>
+      </c>
+      <c r="EM50" s="79" t="n">
+        <v>61.49193548386</v>
+      </c>
+      <c r="EY50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ50" s="78" t="n">
+        <v>652.5</v>
+      </c>
+      <c r="FA50" s="79" t="n">
+        <v>97.39784946238</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="76"/>
-      <c r="E53" s="76" t="n">
+      <c r="D53" s="83"/>
+      <c r="E53" s="83" t="n">
         <v>3</v>
       </c>
-      <c r="F53" s="76" t="n">
+      <c r="F53" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="G53" s="76" t="n">
+      <c r="G53" s="83" t="n">
         <v>5</v>
       </c>
-      <c r="H53" s="76" t="n">
+      <c r="H53" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="I53" s="76" t="n">
+      <c r="I53" s="83" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="86" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="11" t="n">
@@ -16178,7 +19658,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="23" t="n">
@@ -16198,7 +19678,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="87" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="23" t="n">
@@ -16218,7 +19698,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="23" t="n">
@@ -16238,7 +19718,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="87" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="23" t="n">
@@ -16256,9 +19736,21 @@
       <c r="I59" s="23" t="n">
         <v>60.9756097561</v>
       </c>
+      <c r="EM59" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="EO59" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="EQ59" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="ES59" s="40" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="23" t="n">
@@ -16276,9 +19768,36 @@
       <c r="I60" s="23" t="n">
         <v>60.9756097561</v>
       </c>
+      <c r="EL60" s="53" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="EM60" s="88" t="n">
+        <v>22</v>
+      </c>
+      <c r="EN60" s="89" t="n">
+        <v>97.2222222222</v>
+      </c>
+      <c r="EO60" s="88" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="EP60" s="89" t="n">
+        <v>53.65853658536</v>
+      </c>
+      <c r="EQ60" s="90" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="ER60" s="89" t="n">
+        <v>65</v>
+      </c>
+      <c r="ES60" s="88" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="ET60" s="89" t="n">
+        <v>75.1219512195</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="80" t="s">
+      <c r="D61" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="23" t="n">
@@ -16296,9 +19815,36 @@
       <c r="I61" s="23" t="n">
         <v>63.4146341463</v>
       </c>
+      <c r="EL61" s="53" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="EM61" s="88" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="EN61" s="89" t="n">
+        <v>53.248138324</v>
+      </c>
+      <c r="EO61" s="88" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="EP61" s="89" t="n">
+        <v>60.23809523808</v>
+      </c>
+      <c r="EQ61" s="90" t="n">
+        <v>951.6</v>
+      </c>
+      <c r="ER61" s="89" t="n">
+        <v>61.49193548386</v>
+      </c>
+      <c r="ES61" s="88" t="n">
+        <v>652.5</v>
+      </c>
+      <c r="ET61" s="89" t="n">
+        <v>97.39784946238</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="23" t="n">
@@ -16316,9 +19862,36 @@
       <c r="I62" s="23" t="n">
         <v>66.6666666667</v>
       </c>
+      <c r="EL62" s="53" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="EM62" s="88" t="n">
+        <v>603.6</v>
+      </c>
+      <c r="EN62" s="89" t="n">
+        <v>66.66666666668</v>
+      </c>
+      <c r="EO62" s="88" t="n">
+        <v>707</v>
+      </c>
+      <c r="EP62" s="89" t="n">
+        <v>85.55555555556</v>
+      </c>
+      <c r="EQ62" s="90" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="ER62" s="89" t="n">
+        <v>50.55555555556</v>
+      </c>
+      <c r="ES62" s="88" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="ET62" s="89" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="87" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="23" t="n">
@@ -16336,9 +19909,36 @@
       <c r="I63" s="23" t="n">
         <v>70.7317073171</v>
       </c>
+      <c r="EL63" s="53" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="EM63" s="88" t="n">
+        <v>754.1</v>
+      </c>
+      <c r="EN63" s="89" t="n">
+        <v>55.00000000002</v>
+      </c>
+      <c r="EO63" s="88" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="EP63" s="89" t="n">
+        <v>65.55555555556</v>
+      </c>
+      <c r="EQ63" s="90" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="ER63" s="89" t="n">
+        <v>60</v>
+      </c>
+      <c r="ES63" s="88" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="ET63" s="89" t="n">
+        <v>66.11111111112</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="81" t="s">
+      <c r="D64" s="91" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="43" t="n">
@@ -16356,19 +19956,73 @@
       <c r="I64" s="43" t="n">
         <v>63.8888888889</v>
       </c>
+      <c r="EL64" s="53" t="n">
+        <v>-22.11</v>
+      </c>
+      <c r="EM64" s="88" t="n">
+        <v>649.2</v>
+      </c>
+      <c r="EN64" s="89" t="n">
+        <v>58.53658536584</v>
+      </c>
+      <c r="EO64" s="88" t="n">
+        <v>674.7</v>
+      </c>
+      <c r="EP64" s="89" t="n">
+        <v>75.60975609756</v>
+      </c>
+      <c r="EQ64" s="90" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="ER64" s="89" t="n">
+        <v>54.63414634146</v>
+      </c>
+      <c r="ES64" s="88" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="ET64" s="89" t="n">
+        <v>65.36585365852</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="80"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78" t="s">
+      <c r="D65" s="87"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="EL65" s="53" t="n">
+        <v>-22.43</v>
+      </c>
+      <c r="EM65" s="88" t="n">
+        <v>562</v>
+      </c>
+      <c r="EN65" s="89" t="n">
+        <v>60.9756097561</v>
+      </c>
+      <c r="EO65" s="88" t="n">
+        <v>606</v>
+      </c>
+      <c r="EP65" s="89" t="n">
+        <v>66.82926829268</v>
+      </c>
+      <c r="EQ65" s="90" t="n">
+        <v>144</v>
+      </c>
+      <c r="ER65" s="89" t="n">
         <v>60</v>
       </c>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
+      <c r="ES65" s="88" t="n">
+        <v>109</v>
+      </c>
+      <c r="ET65" s="89" t="n">
+        <v>70.73170731708</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="86" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="11" t="n">
@@ -16386,9 +20040,36 @@
       <c r="I66" s="11" t="n">
         <v>63.8888888889</v>
       </c>
+      <c r="EL66" s="53" t="n">
+        <v>-21.15</v>
+      </c>
+      <c r="EM66" s="88" t="n">
+        <v>447</v>
+      </c>
+      <c r="EN66" s="89" t="n">
+        <v>56.58536585364</v>
+      </c>
+      <c r="EO66" s="88" t="n">
+        <v>503</v>
+      </c>
+      <c r="EP66" s="89" t="n">
+        <v>73.65853658534</v>
+      </c>
+      <c r="EQ66" s="90" t="n">
+        <v>192</v>
+      </c>
+      <c r="ER66" s="89" t="n">
+        <v>57.0731707317</v>
+      </c>
+      <c r="ES66" s="88" t="n">
+        <v>146</v>
+      </c>
+      <c r="ET66" s="89" t="n">
+        <v>78.53658536584</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="23" t="n">
@@ -16406,9 +20087,36 @@
       <c r="I67" s="23" t="n">
         <v>50</v>
       </c>
+      <c r="EL67" s="53" t="n">
+        <v>-24.05</v>
+      </c>
+      <c r="EM67" s="88" t="n">
+        <v>632.8</v>
+      </c>
+      <c r="EN67" s="89" t="n">
+        <v>59.44444444444</v>
+      </c>
+      <c r="EO67" s="88" t="n">
+        <v>481.4</v>
+      </c>
+      <c r="EP67" s="89" t="n">
+        <v>75.69444444444</v>
+      </c>
+      <c r="EQ67" s="90" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="ER67" s="89" t="n">
+        <v>47.22222222224</v>
+      </c>
+      <c r="ES67" s="88" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="ET67" s="89" t="n">
+        <v>80.66066066066</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="80" t="s">
+      <c r="D68" s="87" t="s">
         <v>1</v>
       </c>
       <c r="E68" s="23" t="n">
@@ -16426,9 +20134,36 @@
       <c r="I68" s="23" t="n">
         <v>88.8888888889</v>
       </c>
+      <c r="EL68" s="53" t="n">
+        <v>-19.73</v>
+      </c>
+      <c r="EM68" s="88" t="n">
+        <v>472</v>
+      </c>
+      <c r="EN68" s="89" t="n">
+        <v>59.0243902439</v>
+      </c>
+      <c r="EO68" s="88" t="n">
+        <v>540</v>
+      </c>
+      <c r="EP68" s="89" t="n">
+        <v>78.53658536584</v>
+      </c>
+      <c r="EQ68" s="90" t="n">
+        <v>182</v>
+      </c>
+      <c r="ER68" s="89" t="n">
+        <v>49.75609756096</v>
+      </c>
+      <c r="ES68" s="88" t="n">
+        <v>133</v>
+      </c>
+      <c r="ET68" s="89" t="n">
+        <v>83.9024390244</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="80" t="s">
+      <c r="D69" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="23" t="n">
@@ -16446,9 +20181,36 @@
       <c r="I69" s="23" t="n">
         <v>88.8888888889</v>
       </c>
+      <c r="EL69" s="53" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="EM69" s="88" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="EN69" s="89" t="n">
+        <v>58.8888888889</v>
+      </c>
+      <c r="EO69" s="88" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="EP69" s="89" t="n">
+        <v>82.77777777776</v>
+      </c>
+      <c r="EQ69" s="90" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="ER69" s="89" t="n">
+        <v>60</v>
+      </c>
+      <c r="ES69" s="88" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="ET69" s="89" t="n">
+        <v>82.7777777778</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="80" t="s">
+      <c r="D70" s="87" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="23" t="n">
@@ -16468,7 +20230,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="80" t="s">
+      <c r="D71" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="23" t="n">
@@ -16488,7 +20250,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="23" t="n">
@@ -16508,7 +20270,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="80" t="s">
+      <c r="D73" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="23" t="n">
@@ -16528,7 +20290,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="80" t="s">
+      <c r="D74" s="87" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="23" t="n">
@@ -16548,7 +20310,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="81" t="s">
+      <c r="D75" s="91" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="43" t="n">
@@ -16568,17 +20330,17 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="80"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="79" t="s">
+      <c r="D77" s="86" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="11" t="n">
@@ -16598,7 +20360,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="80" t="s">
+      <c r="D78" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="23" t="n">
@@ -16618,7 +20380,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="80" t="s">
+      <c r="D79" s="87" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="23" t="n">
@@ -16638,7 +20400,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="80" t="s">
+      <c r="D80" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="23" t="n">
@@ -16658,7 +20420,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="80" t="s">
+      <c r="D81" s="87" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="23" t="n">
@@ -16678,7 +20440,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="80" t="s">
+      <c r="D82" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="23" t="n">
@@ -16698,7 +20460,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="80" t="s">
+      <c r="D83" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="23" t="n">
@@ -16718,7 +20480,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="80" t="s">
+      <c r="D84" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="23" t="n">
@@ -16738,7 +20500,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="80" t="s">
+      <c r="D85" s="87" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="23" t="n">
@@ -16758,7 +20520,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="81" t="s">
+      <c r="D86" s="91" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="43" t="n">
@@ -16778,17 +20540,17 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="80"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="H87" s="84"/>
+      <c r="I87" s="84"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="79" t="s">
+      <c r="D88" s="86" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="11" t="n">
@@ -16808,7 +20570,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="80" t="s">
+      <c r="D89" s="87" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="23" t="n">
@@ -16828,7 +20590,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="80" t="s">
+      <c r="D90" s="87" t="s">
         <v>1</v>
       </c>
       <c r="E90" s="23" t="n">
@@ -16848,7 +20610,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="80" t="s">
+      <c r="D91" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="23" t="n">
@@ -16868,7 +20630,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="80" t="s">
+      <c r="D92" s="87" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="23" t="n">
@@ -16888,7 +20650,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="80" t="s">
+      <c r="D93" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="23" t="n">
@@ -16908,7 +20670,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="80" t="s">
+      <c r="D94" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="23" t="n">
@@ -16928,7 +20690,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="80" t="s">
+      <c r="D95" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="23" t="n">
@@ -16948,7 +20710,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="80" t="s">
+      <c r="D96" s="87" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="23" t="n">
@@ -16968,7 +20730,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="81" t="s">
+      <c r="D97" s="91" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="43" t="n">
@@ -16987,9 +20749,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B2:J42"/>
+  <autoFilter ref="EZ40:FA50"/>
   <conditionalFormatting sqref="D3:H42">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/porcentagem_previsao.xlsx
+++ b/porcentagem_previsao.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaotrevizoliesteves/projetos/analise_rna/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3420" windowWidth="38400" windowHeight="21140" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27460" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="porcentagem_previsao" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Sheet2!$DD$6:$ED$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$D$53:$O$75</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -257,10 +262,10 @@
     <t>Campo Mourão</t>
   </si>
   <si>
-    <t>City</t>
+    <t>Accumulated Period</t>
   </si>
   <si>
-    <t>Period</t>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -361,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -913,6 +918,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -956,7 +981,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1085,8 +1110,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -1201,6 +1250,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1285,6 +1339,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1292,6 +1353,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1365,6 +1431,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1372,6 +1445,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1445,6 +1523,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1452,6 +1537,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1525,6 +1615,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1532,6 +1629,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1591,12 +1693,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="2097887592"/>
-        <c:axId val="-2082451400"/>
-        <c:axId val="-2081658088"/>
+        <c:axId val="-2110364896"/>
+        <c:axId val="1550491024"/>
+        <c:axId val="-1230645312"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2097887592"/>
+        <c:axId val="-2110364896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082451400"/>
+        <c:crossAx val="1550491024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1642,7 +1744,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082451400"/>
+        <c:axId val="1550491024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,12 +1792,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097887592"/>
+        <c:crossAx val="-2110364896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2081658088"/>
+        <c:axId val="-1230645312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082451400"/>
+        <c:crossAx val="1550491024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,6 +1913,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1819,6 +1928,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -1925,11 +2039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088176920"/>
-        <c:axId val="-2088173624"/>
+        <c:axId val="-2107431088"/>
+        <c:axId val="1229098736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088176920"/>
+        <c:axId val="-2107431088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,12 +2081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088173624"/>
+        <c:crossAx val="1229098736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088173624"/>
+        <c:axId val="1229098736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088176920"/>
+        <c:crossAx val="-2107431088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2094,6 +2208,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2102,6 +2223,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -2208,11 +2334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088339912"/>
-        <c:axId val="-2088045992"/>
+        <c:axId val="-1230336208"/>
+        <c:axId val="1549871856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088339912"/>
+        <c:axId val="-1230336208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,12 +2376,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088045992"/>
+        <c:crossAx val="1549871856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088045992"/>
+        <c:axId val="1549871856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088339912"/>
+        <c:crossAx val="-1230336208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2377,6 +2503,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2385,6 +2518,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -2491,11 +2629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097940824"/>
-        <c:axId val="2097938408"/>
+        <c:axId val="-2118283440"/>
+        <c:axId val="-2086902656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097940824"/>
+        <c:axId val="-2118283440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,12 +2671,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097938408"/>
+        <c:crossAx val="-2086902656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097938408"/>
+        <c:axId val="-2086902656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2588,7 +2726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097940824"/>
+        <c:crossAx val="-2118283440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2662,6 +2800,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2670,6 +2815,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -2776,11 +2926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097718360"/>
-        <c:axId val="2097670840"/>
+        <c:axId val="-2083348912"/>
+        <c:axId val="-1230512448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097718360"/>
+        <c:axId val="-2083348912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,12 +2968,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097670840"/>
+        <c:crossAx val="-1230512448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097670840"/>
+        <c:axId val="-1230512448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2873,7 +3023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097718360"/>
+        <c:crossAx val="-2083348912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2957,6 +3107,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2965,6 +3122,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3058,6 +3220,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3066,6 +3235,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -3172,11 +3346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097610616"/>
-        <c:axId val="2097603304"/>
+        <c:axId val="1550734064"/>
+        <c:axId val="-2118305232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097610616"/>
+        <c:axId val="1550734064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,12 +3388,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097603304"/>
+        <c:crossAx val="-2118305232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097603304"/>
+        <c:axId val="-2118305232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3269,7 +3443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097610616"/>
+        <c:crossAx val="1550734064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3351,6 +3525,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3359,6 +3540,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -3465,11 +3651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088687192"/>
-        <c:axId val="-2088683880"/>
+        <c:axId val="1229081824"/>
+        <c:axId val="-2118166720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088687192"/>
+        <c:axId val="1229081824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,12 +3693,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088683880"/>
+        <c:crossAx val="-2118166720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088683880"/>
+        <c:axId val="-2118166720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3562,7 +3748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088687192"/>
+        <c:crossAx val="1229081824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3636,6 +3822,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3644,6 +3837,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -3750,11 +3948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081475784"/>
-        <c:axId val="-2081474712"/>
+        <c:axId val="-2085734464"/>
+        <c:axId val="-2085731904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081475784"/>
+        <c:axId val="-2085734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,12 +3990,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081474712"/>
+        <c:crossAx val="-2085731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081474712"/>
+        <c:axId val="-2085731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3847,7 +4045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081475784"/>
+        <c:crossAx val="-2085734464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3921,6 +4119,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3929,6 +4134,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -4035,11 +4245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097568904"/>
-        <c:axId val="2097586408"/>
+        <c:axId val="-2111503440"/>
+        <c:axId val="-2106139376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097568904"/>
+        <c:axId val="-2111503440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,12 +4287,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097586408"/>
+        <c:crossAx val="-2106139376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097586408"/>
+        <c:axId val="-2106139376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4132,7 +4342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097568904"/>
+        <c:crossAx val="-2111503440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4206,6 +4416,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4214,6 +4431,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -4320,11 +4542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088937304"/>
-        <c:axId val="2120635016"/>
+        <c:axId val="-2111394816"/>
+        <c:axId val="-2111577776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088937304"/>
+        <c:axId val="-2111394816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,12 +4584,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120635016"/>
+        <c:crossAx val="-2111577776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120635016"/>
+        <c:axId val="-2111577776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4417,7 +4639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088937304"/>
+        <c:crossAx val="-2111394816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4491,6 +4713,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4499,6 +4728,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -4605,11 +4839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107720248"/>
-        <c:axId val="-2112336152"/>
+        <c:axId val="-2117450832"/>
+        <c:axId val="-2095338112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107720248"/>
+        <c:axId val="-2117450832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,12 +4881,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112336152"/>
+        <c:crossAx val="-2095338112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112336152"/>
+        <c:axId val="-2095338112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4702,7 +4936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107720248"/>
+        <c:crossAx val="-2117450832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4757,7 +4991,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4816,6 +5049,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4823,6 +5063,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -4927,6 +5172,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4934,6 +5186,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -5038,6 +5295,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5045,6 +5309,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -5149,6 +5418,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5156,6 +5432,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -5260,6 +5541,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5267,6 +5555,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -5357,12 +5650,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="2046175256"/>
-        <c:axId val="2096139384"/>
-        <c:axId val="-2112228728"/>
+        <c:axId val="-2107314624"/>
+        <c:axId val="1550697248"/>
+        <c:axId val="-2118634080"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2046175256"/>
+        <c:axId val="-2107314624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5400,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096139384"/>
+        <c:crossAx val="1550697248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5408,7 +5701,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096139384"/>
+        <c:axId val="1550697248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35.0"/>
@@ -5457,12 +5750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046175256"/>
+        <c:crossAx val="-2107314624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2112228728"/>
+        <c:axId val="-2118634080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,7 +5793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096139384"/>
+        <c:crossAx val="1550697248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5578,6 +5871,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5585,6 +5885,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -5690,11 +5995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108412872"/>
-        <c:axId val="-2107676840"/>
+        <c:axId val="-2085743376"/>
+        <c:axId val="-2057367120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108412872"/>
+        <c:axId val="-2085743376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5731,12 +6036,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107676840"/>
+        <c:crossAx val="-2057367120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107676840"/>
+        <c:axId val="-2057367120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5782,7 +6087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108412872"/>
+        <c:crossAx val="-2085743376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5856,6 +6161,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5863,6 +6175,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -5968,11 +6285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107742792"/>
-        <c:axId val="-2108032952"/>
+        <c:axId val="-2092794112"/>
+        <c:axId val="-2085679408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107742792"/>
+        <c:axId val="-2092794112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6009,12 +6326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108032952"/>
+        <c:crossAx val="-2085679408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108032952"/>
+        <c:axId val="-2085679408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,7 +6377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107742792"/>
+        <c:crossAx val="-2092794112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6134,6 +6451,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6141,6 +6465,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -6246,11 +6575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2107921640"/>
-        <c:axId val="-2107935400"/>
+        <c:axId val="-2094829296"/>
+        <c:axId val="-2062565792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2107921640"/>
+        <c:axId val="-2094829296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,12 +6616,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107935400"/>
+        <c:crossAx val="-2062565792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107935400"/>
+        <c:axId val="-2062565792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6338,7 +6667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107921640"/>
+        <c:crossAx val="-2094829296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6412,6 +6741,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6419,6 +6755,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -6524,11 +6865,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108347912"/>
-        <c:axId val="-2108296376"/>
+        <c:axId val="-2111498352"/>
+        <c:axId val="-2111965808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108347912"/>
+        <c:axId val="-2111498352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6565,12 +6906,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108296376"/>
+        <c:crossAx val="-2111965808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108296376"/>
+        <c:axId val="-2111965808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,7 +6957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108347912"/>
+        <c:crossAx val="-2111498352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6671,7 +7012,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6730,6 +7070,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6737,6 +7084,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -6841,6 +7193,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6848,6 +7207,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -6952,6 +7316,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6959,6 +7330,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7063,6 +7439,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7070,6 +7453,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7174,6 +7562,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7181,6 +7576,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7271,12 +7671,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="-2112023544"/>
-        <c:axId val="-2112020264"/>
-        <c:axId val="-2112016808"/>
+        <c:axId val="-1230348528"/>
+        <c:axId val="-2083127712"/>
+        <c:axId val="1229121968"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2112023544"/>
+        <c:axId val="-1230348528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112020264"/>
+        <c:crossAx val="-2083127712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7322,7 +7722,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112020264"/>
+        <c:axId val="-2083127712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35.0"/>
@@ -7371,12 +7771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112023544"/>
+        <c:crossAx val="-1230348528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2112016808"/>
+        <c:axId val="1229121968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7414,7 +7814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112020264"/>
+        <c:crossAx val="-2083127712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7473,7 +7873,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7532,6 +7931,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7539,6 +7945,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7643,6 +8054,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7650,6 +8068,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7754,6 +8177,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7761,6 +8191,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7865,6 +8300,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7872,6 +8314,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -7976,6 +8423,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -7983,6 +8437,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8073,12 +8532,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="-2111957880"/>
-        <c:axId val="-2111954584"/>
-        <c:axId val="-2111951112"/>
+        <c:axId val="-2095195792"/>
+        <c:axId val="-2057350944"/>
+        <c:axId val="-2092767168"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2111957880"/>
+        <c:axId val="-2095195792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8116,7 +8575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111954584"/>
+        <c:crossAx val="-2057350944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8124,7 +8583,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111954584"/>
+        <c:axId val="-2057350944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35.0"/>
@@ -8173,12 +8632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111957880"/>
+        <c:crossAx val="-2095195792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2111951112"/>
+        <c:axId val="-2092767168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8216,7 +8675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111954584"/>
+        <c:crossAx val="-2057350944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8275,7 +8734,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -8334,6 +8792,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8341,6 +8806,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8445,6 +8915,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8452,6 +8929,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8556,6 +9038,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8563,6 +9052,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8667,6 +9161,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8674,6 +9175,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8778,6 +9284,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8785,6 +9298,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8875,12 +9393,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="-2108264632"/>
-        <c:axId val="-2107657000"/>
-        <c:axId val="-2108447080"/>
+        <c:axId val="-2086617296"/>
+        <c:axId val="-2086661024"/>
+        <c:axId val="-2095336480"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2108264632"/>
+        <c:axId val="-2086617296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8918,7 +9436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107657000"/>
+        <c:crossAx val="-2086661024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8926,7 +9444,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107657000"/>
+        <c:axId val="-2086661024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35.0"/>
@@ -8975,12 +9493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108264632"/>
+        <c:crossAx val="-2086617296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2108447080"/>
+        <c:axId val="-2095336480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,7 +9536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107657000"/>
+        <c:crossAx val="-2086661024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9104,6 +9622,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9112,6 +9637,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9219,6 +9749,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9227,6 +9764,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9334,6 +9876,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9342,6 +9891,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9449,6 +10003,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -9457,6 +10018,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9553,13 +10119,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112356984"/>
-        <c:axId val="-2107993224"/>
+        <c:axId val="-2058276032"/>
+        <c:axId val="-2057398240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112356984"/>
+        <c:axId val="-2058276032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9597,7 +10162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107993224"/>
+        <c:crossAx val="-2057398240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9605,7 +10170,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107993224"/>
+        <c:axId val="-2057398240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9653,7 +10218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112356984"/>
+        <c:crossAx val="-2058276032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9708,7 +10273,6 @@
       <c:rotX val="30"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -9767,6 +10331,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9774,6 +10345,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9878,6 +10454,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9885,6 +10468,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -9989,6 +10577,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9996,6 +10591,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10100,6 +10700,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10107,6 +10714,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10211,6 +10823,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10218,6 +10837,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10308,12 +10932,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="-2081859048"/>
-        <c:axId val="-2081793672"/>
-        <c:axId val="-2082044168"/>
+        <c:axId val="-2094949296"/>
+        <c:axId val="-2110734928"/>
+        <c:axId val="2127734864"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2081859048"/>
+        <c:axId val="-2094949296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10351,7 +10975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081793672"/>
+        <c:crossAx val="-2110734928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10359,7 +10983,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081793672"/>
+        <c:axId val="-2110734928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10407,12 +11031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081859048"/>
+        <c:crossAx val="-2094949296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2082044168"/>
+        <c:axId val="2127734864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10450,7 +11074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081793672"/>
+        <c:crossAx val="-2110734928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10568,6 +11192,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10575,6 +11206,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10679,6 +11315,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10686,6 +11329,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10790,6 +11438,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10797,6 +11452,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -10901,6 +11561,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -10908,6 +11575,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -11012,6 +11684,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11019,6 +11698,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -11123,6 +11807,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -11130,6 +11821,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -11220,12 +11916,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="-2082174056"/>
-        <c:axId val="-2082070440"/>
-        <c:axId val="-2081951624"/>
+        <c:axId val="1229113696"/>
+        <c:axId val="1550666368"/>
+        <c:axId val="1550560784"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2082174056"/>
+        <c:axId val="1229113696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11263,7 +11959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082070440"/>
+        <c:crossAx val="1550666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11271,7 +11967,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082070440"/>
+        <c:axId val="1550666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11319,12 +12015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082174056"/>
+        <c:crossAx val="1229113696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2081951624"/>
+        <c:axId val="1550560784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11362,7 +12058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082070440"/>
+        <c:crossAx val="1550666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11450,6 +12146,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -11458,6 +12161,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -11551,6 +12259,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -11559,6 +12274,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -11665,11 +12385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097890936"/>
-        <c:axId val="2097893288"/>
+        <c:axId val="-2107427872"/>
+        <c:axId val="1550443472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097890936"/>
+        <c:axId val="-2107427872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11707,12 +12427,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097893288"/>
+        <c:crossAx val="1550443472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097893288"/>
+        <c:axId val="1550443472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11760,7 +12480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097890936"/>
+        <c:crossAx val="-2107427872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12826,9 +13546,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -12860,7 +13580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>3</v>
       </c>
@@ -13012,7 +13732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -13167,7 +13887,7 @@
         <v>60.975609756099999</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -13322,7 +14042,7 @@
         <v>85.365853658500001</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -13477,7 +14197,7 @@
         <v>41.463414634099998</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -13639,11 +14359,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13655,17 +14370,17 @@
       <selection activeCell="D53" sqref="D53:O75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.15">
       <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:167">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -13694,7 +14409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:167">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13768,7 +14483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:167">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -13869,7 +14584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:167">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -14080,7 +14795,7 @@
       <c r="FI5" s="40"/>
       <c r="FJ5" s="41"/>
     </row>
-    <row r="6" spans="1:167">
+    <row r="6" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -14467,7 +15182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:167">
+    <row r="7" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14880,7 +15595,7 @@
         <v>148.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:167">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B8">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15283,7 +15998,7 @@
         <v>652.5</v>
       </c>
     </row>
-    <row r="9" spans="1:167">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B9">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15686,7 +16401,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="10" spans="1:167">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B10">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -16075,7 +16790,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="11" spans="1:167">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -16487,7 +17202,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="12" spans="1:167">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B12">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -16898,7 +17613,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:167">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -17309,7 +18024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:167">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -17723,7 +18438,7 @@
         <v>221.9</v>
       </c>
     </row>
-    <row r="15" spans="1:167">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -18136,7 +18851,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:167">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.15">
       <c r="B16">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -18492,7 +19207,7 @@
         <v>305.10000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:157">
+    <row r="17" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -18519,7 +19234,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="18" spans="1:157">
+    <row r="18" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -18632,7 +19347,7 @@
         <v>60.23809523808</v>
       </c>
     </row>
-    <row r="19" spans="1:157">
+    <row r="19" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -18700,7 +19415,7 @@
         <v>53.658536585359997</v>
       </c>
     </row>
-    <row r="20" spans="1:157">
+    <row r="20" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -18797,7 +19512,7 @@
         <v>66.829268292679998</v>
       </c>
     </row>
-    <row r="21" spans="1:157">
+    <row r="21" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B21">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -18896,7 +19611,7 @@
         <v>73.658536585340002</v>
       </c>
     </row>
-    <row r="22" spans="1:157">
+    <row r="22" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -18995,7 +19710,7 @@
         <v>75.694444444439995</v>
       </c>
     </row>
-    <row r="23" spans="1:157">
+    <row r="23" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -19100,7 +19815,7 @@
         <v>75.609756097559995</v>
       </c>
     </row>
-    <row r="24" spans="1:157">
+    <row r="24" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -19203,7 +19918,7 @@
         <v>78.536585365839997</v>
       </c>
     </row>
-    <row r="25" spans="1:157">
+    <row r="25" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -19318,7 +20033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:157">
+    <row r="26" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B26">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -19435,7 +20150,7 @@
         <v>60.23809523808</v>
       </c>
     </row>
-    <row r="27" spans="1:157">
+    <row r="27" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -19558,7 +20273,7 @@
         <v>53.658536585359997</v>
       </c>
     </row>
-    <row r="28" spans="1:157">
+    <row r="28" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B28">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19669,7 +20384,7 @@
         <v>82.777777777759994</v>
       </c>
     </row>
-    <row r="29" spans="1:157">
+    <row r="29" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B29">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19780,7 +20495,7 @@
         <v>75.694444444439995</v>
       </c>
     </row>
-    <row r="30" spans="1:157">
+    <row r="30" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B30">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19891,7 +20606,7 @@
         <v>73.658536585340002</v>
       </c>
     </row>
-    <row r="31" spans="1:157">
+    <row r="31" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -19942,7 +20657,7 @@
         <v>78.536585365839997</v>
       </c>
     </row>
-    <row r="32" spans="1:157">
+    <row r="32" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B32">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -19987,7 +20702,7 @@
         <v>66.829268292679998</v>
       </c>
     </row>
-    <row r="33" spans="1:157">
+    <row r="33" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -20032,7 +20747,7 @@
         <v>75.609756097559995</v>
       </c>
     </row>
-    <row r="34" spans="1:157">
+    <row r="34" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -20077,7 +20792,7 @@
         <v>65.555555555560005</v>
       </c>
     </row>
-    <row r="35" spans="1:157">
+    <row r="35" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -20128,7 +20843,7 @@
         <v>85.555555555560005</v>
       </c>
     </row>
-    <row r="36" spans="1:157">
+    <row r="36" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B36">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -20155,7 +20870,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="37" spans="1:157">
+    <row r="37" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B37">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -20182,7 +20897,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="38" spans="1:157">
+    <row r="38" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B38">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -20209,7 +20924,7 @@
         <v>-22.43</v>
       </c>
     </row>
-    <row r="39" spans="1:157">
+    <row r="39" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -20242,7 +20957,7 @@
         <v>-24.05</v>
       </c>
     </row>
-    <row r="40" spans="1:157">
+    <row r="40" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B40">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -20281,7 +20996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:157">
+    <row r="41" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B41">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -20327,7 +21042,7 @@
         <v>65.365853658519995</v>
       </c>
     </row>
-    <row r="42" spans="1:157">
+    <row r="42" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B42">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -20372,7 +21087,7 @@
         <v>66.111111111119996</v>
       </c>
     </row>
-    <row r="43" spans="1:157">
+    <row r="43" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EK43" t="s">
         <v>48</v>
       </c>
@@ -20392,7 +21107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:157">
+    <row r="44" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EK44" t="s">
         <v>50</v>
       </c>
@@ -20412,7 +21127,7 @@
         <v>70.731707317079994</v>
       </c>
     </row>
-    <row r="45" spans="1:157">
+    <row r="45" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EK45" t="s">
         <v>9</v>
       </c>
@@ -20432,7 +21147,7 @@
         <v>83.902439024399996</v>
       </c>
     </row>
-    <row r="46" spans="1:157">
+    <row r="46" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EH46" s="9"/>
       <c r="EK46" t="s">
         <v>3</v>
@@ -20453,7 +21168,7 @@
         <v>78.536585365839997</v>
       </c>
     </row>
-    <row r="47" spans="1:157">
+    <row r="47" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EK47" t="s">
         <v>54</v>
       </c>
@@ -20473,7 +21188,7 @@
         <v>75.121951219500005</v>
       </c>
     </row>
-    <row r="48" spans="1:157">
+    <row r="48" spans="1:157" x14ac:dyDescent="0.15">
       <c r="EK48" t="s">
         <v>2</v>
       </c>
@@ -20493,7 +21208,7 @@
         <v>80.66066066066</v>
       </c>
     </row>
-    <row r="49" spans="4:157">
+    <row r="49" spans="4:157" x14ac:dyDescent="0.15">
       <c r="EK49" t="s">
         <v>57</v>
       </c>
@@ -20513,7 +21228,7 @@
         <v>82.777777777799997</v>
       </c>
     </row>
-    <row r="50" spans="4:157">
+    <row r="50" spans="4:157" x14ac:dyDescent="0.15">
       <c r="EK50" t="s">
         <v>58</v>
       </c>
@@ -20533,12 +21248,12 @@
         <v>97.397849462379995</v>
       </c>
     </row>
-    <row r="52" spans="4:157" ht="13" thickBot="1">
+    <row r="52" spans="4:157" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="4:157" ht="14" thickTop="1" thickBot="1">
+    <row r="53" spans="4:157" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D53" s="83"/>
       <c r="E53" s="83">
         <v>3</v>
@@ -20572,7 +21287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="4:157" ht="14" thickTop="1" thickBot="1">
+    <row r="54" spans="4:157" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D54" s="84"/>
       <c r="E54" s="84"/>
       <c r="F54" s="84"/>
@@ -20590,7 +21305,7 @@
       <c r="N54" s="84"/>
       <c r="O54" s="84"/>
     </row>
-    <row r="55" spans="4:157" ht="13" thickTop="1">
+    <row r="55" spans="4:157" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="D55" s="86" t="s">
         <v>4</v>
       </c>
@@ -20626,7 +21341,7 @@
         <v>63.888888888899999</v>
       </c>
     </row>
-    <row r="56" spans="4:157">
+    <row r="56" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D56" s="87" t="s">
         <v>5</v>
       </c>
@@ -20662,7 +21377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="4:157">
+    <row r="57" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D57" s="87" t="s">
         <v>1</v>
       </c>
@@ -20698,7 +21413,7 @@
         <v>88.888888888899999</v>
       </c>
     </row>
-    <row r="58" spans="4:157">
+    <row r="58" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D58" s="87" t="s">
         <v>8</v>
       </c>
@@ -20734,7 +21449,7 @@
         <v>88.888888888899999</v>
       </c>
     </row>
-    <row r="59" spans="4:157">
+    <row r="59" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D59" s="87" t="s">
         <v>9</v>
       </c>
@@ -20782,7 +21497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="4:157">
+    <row r="60" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D60" s="87" t="s">
         <v>3</v>
       </c>
@@ -20845,7 +21560,7 @@
         <v>75.121951219500005</v>
       </c>
     </row>
-    <row r="61" spans="4:157">
+    <row r="61" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D61" s="87" t="s">
         <v>7</v>
       </c>
@@ -20908,7 +21623,7 @@
         <v>97.397849462379995</v>
       </c>
     </row>
-    <row r="62" spans="4:157">
+    <row r="62" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D62" s="87" t="s">
         <v>2</v>
       </c>
@@ -20971,7 +21686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="4:157">
+    <row r="63" spans="4:157" x14ac:dyDescent="0.15">
       <c r="D63" s="87" t="s">
         <v>6</v>
       </c>
@@ -21034,7 +21749,7 @@
         <v>66.111111111119996</v>
       </c>
     </row>
-    <row r="64" spans="4:157" ht="13" thickBot="1">
+    <row r="64" spans="4:157" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D64" s="91" t="s">
         <v>0</v>
       </c>
@@ -21097,7 +21812,7 @@
         <v>65.365853658519995</v>
       </c>
     </row>
-    <row r="65" spans="4:150" ht="14" thickTop="1" thickBot="1">
+    <row r="65" spans="4:150" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D65" s="87"/>
       <c r="E65" s="84"/>
       <c r="F65" s="84"/>
@@ -21142,7 +21857,7 @@
         <v>70.731707317079994</v>
       </c>
     </row>
-    <row r="66" spans="4:150" ht="13" thickTop="1">
+    <row r="66" spans="4:150" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="D66" s="86" t="s">
         <v>4</v>
       </c>
@@ -21205,7 +21920,7 @@
         <v>78.536585365839997</v>
       </c>
     </row>
-    <row r="67" spans="4:150">
+    <row r="67" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D67" s="87" t="s">
         <v>5</v>
       </c>
@@ -21268,7 +21983,7 @@
         <v>80.66066066066</v>
       </c>
     </row>
-    <row r="68" spans="4:150">
+    <row r="68" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D68" s="87" t="s">
         <v>1</v>
       </c>
@@ -21331,7 +22046,7 @@
         <v>83.902439024399996</v>
       </c>
     </row>
-    <row r="69" spans="4:150">
+    <row r="69" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D69" s="87" t="s">
         <v>8</v>
       </c>
@@ -21394,7 +22109,7 @@
         <v>82.777777777799997</v>
       </c>
     </row>
-    <row r="70" spans="4:150">
+    <row r="70" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D70" s="87" t="s">
         <v>9</v>
       </c>
@@ -21430,7 +22145,7 @@
         <v>78.048780487800002</v>
       </c>
     </row>
-    <row r="71" spans="4:150">
+    <row r="71" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D71" s="87" t="s">
         <v>3</v>
       </c>
@@ -21466,7 +22181,7 @@
         <v>73.170731707300007</v>
       </c>
     </row>
-    <row r="72" spans="4:150">
+    <row r="72" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D72" s="87" t="s">
         <v>7</v>
       </c>
@@ -21502,7 +22217,7 @@
         <v>63.414634146300003</v>
       </c>
     </row>
-    <row r="73" spans="4:150">
+    <row r="73" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D73" s="87" t="s">
         <v>2</v>
       </c>
@@ -21538,7 +22253,7 @@
         <v>63.888888888899999</v>
       </c>
     </row>
-    <row r="74" spans="4:150">
+    <row r="74" spans="4:150" x14ac:dyDescent="0.15">
       <c r="D74" s="87" t="s">
         <v>6</v>
       </c>
@@ -21574,7 +22289,7 @@
         <v>58.536585365900002</v>
       </c>
     </row>
-    <row r="75" spans="4:150" ht="13" thickBot="1">
+    <row r="75" spans="4:150" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D75" s="91" t="s">
         <v>0</v>
       </c>
@@ -21610,8 +22325,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="4:150" ht="13" thickTop="1"/>
-    <row r="87" spans="141:141">
+    <row r="76" spans="4:150" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="141:141" x14ac:dyDescent="0.15">
       <c r="EK87" t="s">
         <v>65</v>
       </c>
@@ -22142,122 +22857,119 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L28"/>
+  <dimension ref="A4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.83203125" customWidth="1"/>
+    <col min="8" max="12" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="13" thickBot="1"/>
-    <row r="5" spans="1:12" ht="14" thickTop="1" thickBot="1">
-      <c r="A5" s="92" t="s">
+    <row r="4" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="94">
+        <v>3</v>
+      </c>
+      <c r="C5" s="94">
+        <v>4</v>
+      </c>
+      <c r="D5" s="94">
+        <v>5</v>
+      </c>
+      <c r="E5" s="94">
+        <v>6</v>
+      </c>
+      <c r="F5" s="94">
+        <v>7</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="94">
+        <v>3</v>
+      </c>
+      <c r="I5" s="94">
+        <v>4</v>
+      </c>
+      <c r="J5" s="94">
+        <v>5</v>
+      </c>
+      <c r="K5" s="94">
+        <v>6</v>
+      </c>
+      <c r="L5" s="94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="83">
-        <v>3</v>
-      </c>
-      <c r="C5" s="83">
-        <v>4</v>
-      </c>
-      <c r="D5" s="83">
-        <v>5</v>
-      </c>
-      <c r="E5" s="83">
-        <v>6</v>
-      </c>
-      <c r="F5" s="83">
-        <v>7</v>
-      </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="83">
-        <v>3</v>
-      </c>
-      <c r="I5" s="83">
-        <v>4</v>
-      </c>
-      <c r="J5" s="83">
-        <v>5</v>
-      </c>
-      <c r="K5" s="83">
-        <v>6</v>
-      </c>
-      <c r="L5" s="83">
-        <v>7</v>
-      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
     </row>
-    <row r="6" spans="1:12" ht="14" thickTop="1" thickBot="1">
-      <c r="A6" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="23">
+        <v>97.222222222200003</v>
+      </c>
+      <c r="C7" s="23">
+        <v>100</v>
+      </c>
+      <c r="D7" s="23">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23">
+        <v>94.444444444400006</v>
+      </c>
+      <c r="F7" s="23">
+        <v>94.444444444400006</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="23">
+        <v>68.292682926799998</v>
+      </c>
+      <c r="I7" s="23">
+        <v>44.444444444399998</v>
+      </c>
+      <c r="J7" s="23">
+        <v>38.888888888899999</v>
+      </c>
+      <c r="K7" s="23">
+        <v>52.777777777799997</v>
+      </c>
+      <c r="L7" s="23">
+        <v>63.888888888899999</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="13" thickTop="1">
-      <c r="A7" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="11">
-        <v>97.222222222200003</v>
-      </c>
-      <c r="C7" s="11">
-        <v>100</v>
-      </c>
-      <c r="D7" s="11">
-        <v>100</v>
-      </c>
-      <c r="E7" s="11">
-        <v>94.444444444400006</v>
-      </c>
-      <c r="F7" s="11">
-        <v>94.444444444400006</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="11">
-        <v>68.292682926799998</v>
-      </c>
-      <c r="I7" s="11">
-        <v>44.444444444399998</v>
-      </c>
-      <c r="J7" s="11">
-        <v>38.888888888899999</v>
-      </c>
-      <c r="K7" s="11">
-        <v>52.777777777799997</v>
-      </c>
-      <c r="L7" s="11">
-        <v>63.888888888899999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="87" t="s">
         <v>67</v>
       </c>
@@ -22293,7 +23005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="87" t="s">
         <v>68</v>
       </c>
@@ -22329,7 +23041,7 @@
         <v>88.888888888899999</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="87" t="s">
         <v>69</v>
       </c>
@@ -22365,7 +23077,7 @@
         <v>88.888888888899999</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="87" t="s">
         <v>70</v>
       </c>
@@ -22401,7 +23113,7 @@
         <v>85.365853658500001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="87" t="s">
         <v>71</v>
       </c>
@@ -22437,7 +23149,7 @@
         <v>92.682926829300001</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="87" t="s">
         <v>72</v>
       </c>
@@ -22473,7 +23185,7 @@
         <v>87.804878048800006</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="87" t="s">
         <v>73</v>
       </c>
@@ -22509,7 +23221,7 @@
         <v>72.222222222200003</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="87" t="s">
         <v>57</v>
       </c>
@@ -22545,97 +23257,97 @@
         <v>78.048780487800002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" thickBot="1">
-      <c r="A16" s="91" t="s">
+    <row r="16" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="99">
         <v>47.222222222200003</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="99">
         <v>58.333333333299997</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="99">
         <v>61.111111111100001</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="99">
         <v>66.666666666699996</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="99">
         <v>63.888888888899999</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="43">
+      <c r="G16" s="92"/>
+      <c r="H16" s="99">
         <v>58.333333333299997</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="99">
         <v>61.111111111100001</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="99">
         <v>77.777777777799997</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="99">
         <v>90.625</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="99">
         <v>90.625</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14" thickTop="1" thickBot="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85" t="s">
+    <row r="17" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85" t="s">
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
     </row>
-    <row r="18" spans="1:12" ht="13" thickTop="1">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="23">
         <v>72.222222222200003</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="23">
         <v>66.666666666699996</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="23">
         <v>63.888888888899999</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="23">
         <v>63.888888888899999</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="23">
         <v>58.333333333299997</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="11">
+      <c r="G18" s="92"/>
+      <c r="H18" s="23">
         <v>85.365853658500001</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="23">
         <v>80.487804878000006</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="23">
         <v>70.731707317100003</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="23">
         <v>73.170731707300007</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="23">
         <v>65.853658536599994</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="87" t="s">
         <v>67</v>
       </c>
@@ -22671,7 +23383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="87" t="s">
         <v>68</v>
       </c>
@@ -22707,7 +23419,7 @@
         <v>80.555555555599994</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="87" t="s">
         <v>69</v>
       </c>
@@ -22743,7 +23455,7 @@
         <v>77.777777777799997</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="87" t="s">
         <v>70</v>
       </c>
@@ -22779,7 +23491,7 @@
         <v>78.048780487800002</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="87" t="s">
         <v>71</v>
       </c>
@@ -22815,7 +23527,7 @@
         <v>73.170731707300007</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="87" t="s">
         <v>72</v>
       </c>
@@ -22851,7 +23563,7 @@
         <v>63.414634146300003</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="87" t="s">
         <v>73</v>
       </c>
@@ -22887,7 +23599,7 @@
         <v>63.888888888899999</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="87" t="s">
         <v>57</v>
       </c>
@@ -22923,43 +23635,42 @@
         <v>58.536585365900002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13" thickBot="1">
-      <c r="A27" s="91" t="s">
+    <row r="27" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="99">
         <v>58.333333333299997</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="99">
         <v>55.555555555600002</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="99">
         <v>41.666666666700003</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="99">
         <v>41.666666666700003</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="99">
         <v>38.888888888899999</v>
       </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="43">
+      <c r="G27" s="96"/>
+      <c r="H27" s="99">
         <v>91.666666666699996</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="99">
         <v>72.222222222200003</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="99">
         <v>81.081081081099995</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="99">
         <v>83.333333333300004</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="99">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B7:F7">
@@ -23503,11 +24214,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>